--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_16_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_16_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>638302.9178252789</v>
+        <v>633706.2679689578</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29990210.90098937</v>
+        <v>29990210.90098936</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6985646.213848256</v>
+        <v>6985646.213848263</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5218233.315888809</v>
+        <v>5218233.315888808</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>398.5660300744983</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T11" t="n">
-        <v>211.1448086517629</v>
+        <v>53.40736792295115</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>320.726008438997</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>92.18779416180689</v>
       </c>
       <c r="H12" t="n">
-        <v>43.9045311391345</v>
+        <v>43.90453113913449</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>63.32136466518996</v>
+        <v>63.32136466518995</v>
       </c>
       <c r="T12" t="n">
         <v>136.7309641056443</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>142.5324296116899</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.5909258267186</v>
+        <v>97.00071224681864</v>
       </c>
       <c r="U13" t="n">
         <v>277.3402845023203</v>
@@ -1593,10 +1593,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>405.1539881323723</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>57.89016812284361</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>211.1448086517629</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>90.9561526382498</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H16" t="n">
         <v>135.4602252892499</v>
       </c>
       <c r="I16" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.5909258267186</v>
       </c>
       <c r="U16" t="n">
-        <v>66.87025411167006</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>173.4822249357963</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>86.93218448593163</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>41.34546638575365</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>132.8997402325363</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.5909258267186</v>
@@ -2067,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>375.2585170190413</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U20" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>294.7626132942835</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>202.8376934718838</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>69.82582446500759</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>52.34346969091202</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>255.5923844622858</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>81.21443613283871</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>23.84246215377908</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H24" t="n">
-        <v>41.28176946329209</v>
+        <v>41.2817694632921</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>58.27713410334047</v>
+        <v>58.27713410334049</v>
       </c>
       <c r="T24" t="n">
-        <v>135.6363601183149</v>
+        <v>135.636360118315</v>
       </c>
       <c r="U24" t="n">
         <v>182.8417636914805</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>14.02202018076628</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>163.5908699634609</v>
+        <v>160.0945584276583</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>68.59199721635846</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.445867145127806</v>
+        <v>1.445867145127849</v>
       </c>
       <c r="S25" t="n">
         <v>150.9449052174855</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.0584736956206</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>52.34346969091202</v>
+        <v>52.34346969091205</v>
       </c>
       <c r="T26" t="n">
         <v>208.9229806032259</v>
       </c>
       <c r="U26" t="n">
-        <v>255.5923844622858</v>
+        <v>130.1333376895818</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>265.6175848847009</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -2651,7 +2651,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H27" t="n">
-        <v>41.28176946329209</v>
+        <v>41.2817694632921</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>58.27713410334047</v>
+        <v>58.27713410334049</v>
       </c>
       <c r="T27" t="n">
-        <v>135.6363601183149</v>
+        <v>135.636360118315</v>
       </c>
       <c r="U27" t="n">
         <v>182.8417636914805</v>
@@ -2721,7 +2721,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>7.46973366104113</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.4360114046202</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>68.59199721635846</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1.445867145127806</v>
+        <v>1.445867145127849</v>
       </c>
       <c r="S28" t="n">
         <v>150.9449052174855</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>45.57998262871325</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.17389739409474</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.0584736956206</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>52.34346969091202</v>
+        <v>52.34346969091205</v>
       </c>
       <c r="T29" t="n">
         <v>208.9229806032259</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.5923844622858</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>296.3898191711415</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H30" t="n">
-        <v>41.28176946329209</v>
+        <v>41.2817694632921</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>58.27713410334047</v>
+        <v>58.27713410334049</v>
       </c>
       <c r="T30" t="n">
-        <v>135.6363601183149</v>
+        <v>135.636360118315</v>
       </c>
       <c r="U30" t="n">
         <v>182.8417636914805</v>
@@ -2958,19 +2958,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>13.06676635555223</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.4360114046202</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>68.59199721635846</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>1.445867145127806</v>
+        <v>1.445867145127849</v>
       </c>
       <c r="S31" t="n">
         <v>150.9449052174855</v>
@@ -3018,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>199.6642221504009</v>
       </c>
     </row>
     <row r="32">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>153.8585039193426</v>
       </c>
       <c r="F32" t="n">
-        <v>354.1893534239456</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>398.0584736956206</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>52.34346969091202</v>
+        <v>52.34346969091205</v>
       </c>
       <c r="T32" t="n">
-        <v>208.9229806032259</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>255.5923844622858</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H33" t="n">
-        <v>41.28176946329209</v>
+        <v>41.2817694632921</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>58.27713410334047</v>
+        <v>58.27713410334049</v>
       </c>
       <c r="T33" t="n">
-        <v>135.6363601183149</v>
+        <v>135.636360118315</v>
       </c>
       <c r="U33" t="n">
         <v>182.8417636914805</v>
@@ -3189,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3204,10 +3204,10 @@
         <v>163.5908699634609</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.4360114046202</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>68.59199721635846</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1.445867145127806</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>150.9449052174855</v>
       </c>
       <c r="T34" t="n">
-        <v>86.20372150180096</v>
+        <v>236.6181441030213</v>
       </c>
       <c r="U34" t="n">
         <v>277.3278660122306</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>29.74883094031637</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3274,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>398.0584736956206</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>271.9779897930421</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>52.34346969091202</v>
+        <v>52.34346969091205</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>208.9229806032259</v>
       </c>
       <c r="U35" t="n">
         <v>255.5923844622858</v>
       </c>
       <c r="V35" t="n">
-        <v>20.13633782661838</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>348.9662940800638</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H36" t="n">
-        <v>41.28176946329209</v>
+        <v>41.2817694632921</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>58.27713410334047</v>
+        <v>58.27713410334049</v>
       </c>
       <c r="T36" t="n">
-        <v>135.6363601183149</v>
+        <v>135.636360118315</v>
       </c>
       <c r="U36" t="n">
         <v>182.8417636914805</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>107.1136281089048</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>163.5908699634609</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>68.59199721635845</v>
+        <v>68.59199721635846</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.445867145127806</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>150.9449052174855</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>236.6181441030213</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3278660122306</v>
+        <v>204.0502510308501</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.0584736956206</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>52.34346969091202</v>
+        <v>52.34346969091205</v>
       </c>
       <c r="T38" t="n">
-        <v>51.18485477192196</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.5923844622858</v>
+        <v>227.0913769251532</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H39" t="n">
-        <v>41.28176946329209</v>
+        <v>41.2817694632921</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>58.27713410334047</v>
+        <v>58.27713410334049</v>
       </c>
       <c r="T39" t="n">
-        <v>135.6363601183149</v>
+        <v>135.636360118315</v>
       </c>
       <c r="U39" t="n">
         <v>182.8417636914805</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>135.8531048784963</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>35.1180983617289</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.5908699634609</v>
       </c>
       <c r="H40" t="n">
         <v>133.4360114046202</v>
       </c>
       <c r="I40" t="n">
-        <v>68.59199721635845</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1.445867145127806</v>
+        <v>1.445867145127849</v>
       </c>
       <c r="S40" t="n">
-        <v>150.9449052174855</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>236.6181441030213</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3278660122306</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3748,13 +3748,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.0584736956206</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>52.34346969091202</v>
+        <v>52.34346969091205</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.5923844622858</v>
+        <v>227.0913769251532</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>14.74673186870452</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H42" t="n">
-        <v>41.28176946329209</v>
+        <v>41.2817694632921</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>58.27713410334047</v>
+        <v>58.27713410334049</v>
       </c>
       <c r="T42" t="n">
-        <v>135.6363601183149</v>
+        <v>135.636360118315</v>
       </c>
       <c r="U42" t="n">
         <v>182.8417636914805</v>
@@ -3900,10 +3900,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3918,7 +3918,7 @@
         <v>133.4360114046202</v>
       </c>
       <c r="I43" t="n">
-        <v>68.59199721635845</v>
+        <v>68.59199721635846</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1.445867145127806</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9449052174855</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>45.85931802531842</v>
+        <v>145.2080004716111</v>
       </c>
       <c r="U43" t="n">
         <v>277.3278660122306</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3982,16 +3982,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>274.1569084383106</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>52.34346969091202</v>
+        <v>52.34346969091207</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>227.0913769251532</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>91.91622755776872</v>
       </c>
       <c r="H45" t="n">
-        <v>41.28176946329209</v>
+        <v>41.28176946329211</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>58.27713410334047</v>
+        <v>58.27713410334049</v>
       </c>
       <c r="T45" t="n">
-        <v>135.6363601183149</v>
+        <v>135.636360118315</v>
       </c>
       <c r="U45" t="n">
         <v>182.8417636914805</v>
@@ -4149,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>72.1807263320504</v>
       </c>
       <c r="H46" t="n">
         <v>133.4360114046202</v>
       </c>
       <c r="I46" t="n">
-        <v>68.59199721635845</v>
+        <v>68.59199721635848</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>1.445867145127806</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9449052174855</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>236.6181441030213</v>
@@ -4194,16 +4194,16 @@
         <v>277.3278660122306</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>105.1131994671963</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>864.845055500735</v>
+        <v>1289.969237311335</v>
       </c>
       <c r="C11" t="n">
-        <v>864.845055500735</v>
+        <v>1289.969237311335</v>
       </c>
       <c r="D11" t="n">
-        <v>864.845055500735</v>
+        <v>1289.969237311335</v>
       </c>
       <c r="E11" t="n">
-        <v>438.8681156485927</v>
+        <v>863.9922974591925</v>
       </c>
       <c r="F11" t="n">
         <v>438.8681156485927</v>
@@ -5038,28 +5038,28 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I11" t="n">
-        <v>68.08893453872666</v>
+        <v>68.08893453872668</v>
       </c>
       <c r="J11" t="n">
-        <v>184.2963411149079</v>
+        <v>184.296341114908</v>
       </c>
       <c r="K11" t="n">
-        <v>366.7061291250297</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L11" t="n">
-        <v>598.9981372303099</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M11" t="n">
-        <v>862.6140377103491</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N11" t="n">
-        <v>1131.245262923653</v>
+        <v>1131.245262923652</v>
       </c>
       <c r="O11" t="n">
-        <v>1382.739131455148</v>
+        <v>1382.739131455147</v>
       </c>
       <c r="P11" t="n">
-        <v>1591.776917090911</v>
+        <v>1591.77691709091</v>
       </c>
       <c r="Q11" t="n">
         <v>1740.92751718922</v>
@@ -5068,25 +5068,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S11" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T11" t="n">
-        <v>1600.530719422884</v>
+        <v>1695.306507356444</v>
       </c>
       <c r="U11" t="n">
-        <v>1600.530719422884</v>
+        <v>1695.306507356444</v>
       </c>
       <c r="V11" t="n">
-        <v>1600.530719422884</v>
+        <v>1695.306507356444</v>
       </c>
       <c r="W11" t="n">
-        <v>1276.565054332988</v>
+        <v>1695.306507356444</v>
       </c>
       <c r="X11" t="n">
-        <v>864.845055500735</v>
+        <v>1695.306507356444</v>
       </c>
       <c r="Y11" t="n">
-        <v>864.845055500735</v>
+        <v>1289.969237311335</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I12" t="n">
-        <v>51.80960935527473</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J12" t="n">
-        <v>410.0665369506948</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K12" t="n">
-        <v>535.8351625219348</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L12" t="n">
-        <v>712.4740133525836</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M12" t="n">
-        <v>921.7487118335985</v>
+        <v>945.2060176780107</v>
       </c>
       <c r="N12" t="n">
-        <v>1138.903693665914</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O12" t="n">
-        <v>1333.947360653401</v>
+        <v>1357.404666497813</v>
       </c>
       <c r="P12" t="n">
-        <v>1487.345475499754</v>
+        <v>1580.474417479231</v>
       </c>
       <c r="Q12" t="n">
         <v>1674.905125453737</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>737.1118970142579</v>
+        <v>208.2487291994763</v>
       </c>
       <c r="C13" t="n">
-        <v>565.1393338931739</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="D13" t="n">
-        <v>421.1671827702548</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="E13" t="n">
-        <v>421.1671827702548</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="F13" t="n">
-        <v>249.3054085448152</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G13" t="n">
-        <v>249.3054085448152</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H13" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I13" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="J13" t="n">
-        <v>70.15038753583895</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K13" t="n">
-        <v>385.9171444939831</v>
+        <v>216.556252028182</v>
       </c>
       <c r="L13" t="n">
-        <v>834.8346997140876</v>
+        <v>665.4738072482864</v>
       </c>
       <c r="M13" t="n">
-        <v>1283.752254934192</v>
+        <v>763.5271548259057</v>
       </c>
       <c r="N13" t="n">
-        <v>1380.75096102614</v>
+        <v>860.5258609178536</v>
       </c>
       <c r="O13" t="n">
-        <v>1703.122733210255</v>
+        <v>1309.443416137958</v>
       </c>
       <c r="P13" t="n">
-        <v>1773.863841351391</v>
+        <v>1692.940728852402</v>
       </c>
       <c r="Q13" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R13" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="S13" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="T13" t="n">
-        <v>1573.817469751211</v>
+        <v>1704.026935512948</v>
       </c>
       <c r="U13" t="n">
-        <v>1293.675768233716</v>
+        <v>1423.885233995453</v>
       </c>
       <c r="V13" t="n">
-        <v>1011.964300841745</v>
+        <v>1142.173766603482</v>
       </c>
       <c r="W13" t="n">
-        <v>737.1118970142579</v>
+        <v>867.3213627759948</v>
       </c>
       <c r="X13" t="n">
-        <v>737.1118970142579</v>
+        <v>624.7574662217999</v>
       </c>
       <c r="Y13" t="n">
-        <v>737.1118970142579</v>
+        <v>398.4146979115419</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>872.4233487240541</v>
+        <v>922.4672147549941</v>
       </c>
       <c r="C14" t="n">
-        <v>445.5226187373542</v>
+        <v>922.4672147549941</v>
       </c>
       <c r="D14" t="n">
-        <v>445.5226187373542</v>
+        <v>922.4672147549941</v>
       </c>
       <c r="E14" t="n">
-        <v>445.5226187373542</v>
+        <v>922.4672147549941</v>
       </c>
       <c r="F14" t="n">
-        <v>36.27616607839228</v>
+        <v>497.3430329443943</v>
       </c>
       <c r="G14" t="n">
-        <v>36.27616607839228</v>
+        <v>94.75108337419391</v>
       </c>
       <c r="H14" t="n">
         <v>36.27616607839228</v>
@@ -5305,25 +5305,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S14" t="n">
-        <v>1749.253343642254</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T14" t="n">
-        <v>1535.975759145523</v>
+        <v>1600.530719422884</v>
       </c>
       <c r="U14" t="n">
-        <v>1277.760618769164</v>
+        <v>1342.315579046524</v>
       </c>
       <c r="V14" t="n">
-        <v>1277.760618769164</v>
+        <v>1342.315579046524</v>
       </c>
       <c r="W14" t="n">
-        <v>1277.760618769164</v>
+        <v>1342.315579046524</v>
       </c>
       <c r="X14" t="n">
-        <v>1277.760618769164</v>
+        <v>1342.315579046524</v>
       </c>
       <c r="Y14" t="n">
-        <v>872.4233487240541</v>
+        <v>1342.315579046524</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I15" t="n">
-        <v>51.80960935527475</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J15" t="n">
-        <v>117.9640444811038</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K15" t="n">
-        <v>243.7326700523438</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L15" t="n">
-        <v>420.3715208829927</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M15" t="n">
-        <v>629.6462193640077</v>
+        <v>945.2060176780107</v>
       </c>
       <c r="N15" t="n">
-        <v>846.801201196324</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O15" t="n">
-        <v>1295.718756416429</v>
+        <v>1357.404666497813</v>
       </c>
       <c r="P15" t="n">
-        <v>1449.116871262781</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q15" t="n">
-        <v>1780.360625738641</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R15" t="n">
         <v>1813.808303919613</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>587.3753886174012</v>
+        <v>602.3146273839054</v>
       </c>
       <c r="C16" t="n">
-        <v>587.3753886174012</v>
+        <v>510.4397257291076</v>
       </c>
       <c r="D16" t="n">
-        <v>587.3753886174012</v>
+        <v>510.4397257291076</v>
       </c>
       <c r="E16" t="n">
-        <v>421.1671827702548</v>
+        <v>510.4397257291076</v>
       </c>
       <c r="F16" t="n">
-        <v>249.3054085448152</v>
+        <v>338.577951503668</v>
       </c>
       <c r="G16" t="n">
-        <v>249.3054085448152</v>
+        <v>173.104676471574</v>
       </c>
       <c r="H16" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I16" t="n">
         <v>36.27616607839228</v>
@@ -5442,46 +5442,46 @@
         <v>216.556252028182</v>
       </c>
       <c r="L16" t="n">
-        <v>665.4738072482864</v>
+        <v>309.0520751284041</v>
       </c>
       <c r="M16" t="n">
-        <v>1114.391362468391</v>
+        <v>757.9696303485086</v>
       </c>
       <c r="N16" t="n">
-        <v>1211.390068560339</v>
+        <v>1206.887185568613</v>
       </c>
       <c r="O16" t="n">
-        <v>1660.307623780443</v>
+        <v>1655.804740788718</v>
       </c>
       <c r="P16" t="n">
-        <v>1773.863841351391</v>
+        <v>1726.545848929853</v>
       </c>
       <c r="Q16" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R16" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.530066266137</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T16" t="n">
-        <v>1405.539232097734</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U16" t="n">
-        <v>1337.993520873825</v>
+        <v>1293.675768233716</v>
       </c>
       <c r="V16" t="n">
-        <v>1056.282053481854</v>
+        <v>1293.675768233716</v>
       </c>
       <c r="W16" t="n">
-        <v>1056.282053481854</v>
+        <v>1018.823364406229</v>
       </c>
       <c r="X16" t="n">
-        <v>813.7181569276592</v>
+        <v>1018.823364406229</v>
       </c>
       <c r="Y16" t="n">
-        <v>587.3753886174012</v>
+        <v>792.4805960959711</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1059.92753934621</v>
+        <v>1314.278017727834</v>
       </c>
       <c r="C17" t="n">
-        <v>884.6929687039918</v>
+        <v>887.3772877411345</v>
       </c>
       <c r="D17" t="n">
-        <v>461.4003478889921</v>
+        <v>887.3772877411345</v>
       </c>
       <c r="E17" t="n">
         <v>461.4003478889921</v>
@@ -5551,16 +5551,16 @@
         <v>1813.808303919614</v>
       </c>
       <c r="V17" t="n">
-        <v>1456.318889045863</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="W17" t="n">
-        <v>1059.92753934621</v>
+        <v>1725.998016560087</v>
       </c>
       <c r="X17" t="n">
-        <v>1059.92753934621</v>
+        <v>1314.278017727834</v>
       </c>
       <c r="Y17" t="n">
-        <v>1059.92753934621</v>
+        <v>1314.278017727834</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>75.26691519968659</v>
       </c>
       <c r="J18" t="n">
-        <v>141.4213503255156</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K18" t="n">
-        <v>267.1899758967556</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L18" t="n">
-        <v>671.4155988778755</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M18" t="n">
-        <v>1120.33315409798</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N18" t="n">
-        <v>1337.488135930296</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O18" t="n">
-        <v>1532.531802917783</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P18" t="n">
-        <v>1685.929917764136</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q18" t="n">
-        <v>1780.360625738641</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R18" t="n">
         <v>1813.808303919613</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>342.490891050523</v>
+        <v>78.03926343773941</v>
       </c>
       <c r="C19" t="n">
-        <v>170.518327929439</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="D19" t="n">
-        <v>170.518327929439</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="E19" t="n">
         <v>36.27616607839228</v>
@@ -5673,19 +5673,19 @@
         <v>36.27616607839228</v>
       </c>
       <c r="J19" t="n">
-        <v>82.12460229687611</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K19" t="n">
-        <v>150.6087501409983</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L19" t="n">
-        <v>243.1045732412204</v>
+        <v>556.3346842424261</v>
       </c>
       <c r="M19" t="n">
-        <v>341.1579208188396</v>
+        <v>1005.25223946253</v>
       </c>
       <c r="N19" t="n">
-        <v>790.0754760389441</v>
+        <v>1102.250945554478</v>
       </c>
       <c r="O19" t="n">
         <v>1238.993031259049</v>
@@ -5697,28 +5697,28 @@
         <v>1813.808303919614</v>
       </c>
       <c r="R19" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.530066266137</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T19" t="n">
-        <v>1405.539232097734</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U19" t="n">
-        <v>1125.397530580239</v>
+        <v>1293.675768233716</v>
       </c>
       <c r="V19" t="n">
-        <v>843.686063188268</v>
+        <v>1011.964300841745</v>
       </c>
       <c r="W19" t="n">
-        <v>568.833659360781</v>
+        <v>737.1118970142579</v>
       </c>
       <c r="X19" t="n">
-        <v>568.833659360781</v>
+        <v>494.548000460063</v>
       </c>
       <c r="Y19" t="n">
-        <v>342.490891050523</v>
+        <v>268.2052321498051</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>36.27616607839228</v>
+        <v>1243.041304549133</v>
       </c>
       <c r="C20" t="n">
-        <v>36.27616607839228</v>
+        <v>863.9922974591925</v>
       </c>
       <c r="D20" t="n">
-        <v>36.27616607839228</v>
+        <v>863.9922974591925</v>
       </c>
       <c r="E20" t="n">
-        <v>36.27616607839228</v>
+        <v>863.9922974591925</v>
       </c>
       <c r="F20" t="n">
-        <v>36.27616607839228</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="G20" t="n">
         <v>36.27616607839228</v>
@@ -5749,19 +5749,19 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I20" t="n">
-        <v>68.08893453872656</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J20" t="n">
-        <v>184.2963411149077</v>
+        <v>184.2963411149079</v>
       </c>
       <c r="K20" t="n">
-        <v>366.7061291250297</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L20" t="n">
-        <v>598.99813723031</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M20" t="n">
-        <v>862.6140377103479</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N20" t="n">
         <v>1131.245262923652</v>
@@ -5782,22 +5782,22 @@
         <v>1813.808303919614</v>
       </c>
       <c r="T20" t="n">
-        <v>1813.808303919614</v>
+        <v>1600.530719422884</v>
       </c>
       <c r="U20" t="n">
-        <v>1555.593163543254</v>
+        <v>1600.530719422884</v>
       </c>
       <c r="V20" t="n">
-        <v>1257.853150114685</v>
+        <v>1243.041304549133</v>
       </c>
       <c r="W20" t="n">
-        <v>861.461800415032</v>
+        <v>1243.041304549133</v>
       </c>
       <c r="X20" t="n">
-        <v>861.461800415032</v>
+        <v>1243.041304549133</v>
       </c>
       <c r="Y20" t="n">
-        <v>456.1245303699224</v>
+        <v>1243.041304549133</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>75.26691519968659</v>
       </c>
       <c r="J21" t="n">
-        <v>141.4213503255156</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K21" t="n">
-        <v>267.1899758967556</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L21" t="n">
-        <v>716.1075311168602</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M21" t="n">
-        <v>925.3822295978753</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N21" t="n">
-        <v>1232.032635645391</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O21" t="n">
-        <v>1427.076302632877</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P21" t="n">
-        <v>1580.47441747923</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q21" t="n">
         <v>1674.905125453736</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>510.5505146247521</v>
+        <v>619.6280083713864</v>
       </c>
       <c r="C22" t="n">
-        <v>338.577951503668</v>
+        <v>447.6554452503024</v>
       </c>
       <c r="D22" t="n">
-        <v>338.577951503668</v>
+        <v>284.3386723770731</v>
       </c>
       <c r="E22" t="n">
-        <v>338.577951503668</v>
+        <v>284.3386723770731</v>
       </c>
       <c r="F22" t="n">
-        <v>338.577951503668</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="G22" t="n">
-        <v>173.104676471574</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="H22" t="n">
-        <v>36.27616607839228</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I22" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="J22" t="n">
-        <v>70.15038753583897</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K22" t="n">
-        <v>385.9171444939832</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L22" t="n">
-        <v>478.4129675942053</v>
+        <v>912.7564163623085</v>
       </c>
       <c r="M22" t="n">
-        <v>703.7823482166198</v>
+        <v>1361.673971582413</v>
       </c>
       <c r="N22" t="n">
-        <v>1152.699903436724</v>
+        <v>1616.829605387931</v>
       </c>
       <c r="O22" t="n">
-        <v>1238.993031259049</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P22" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q22" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R22" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S22" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T22" t="n">
-        <v>1802.007452933977</v>
+        <v>1608.921744857105</v>
       </c>
       <c r="U22" t="n">
-        <v>1521.865751416482</v>
+        <v>1608.921744857105</v>
       </c>
       <c r="V22" t="n">
-        <v>1240.15428402451</v>
+        <v>1327.210277465134</v>
       </c>
       <c r="W22" t="n">
-        <v>1169.62314820127</v>
+        <v>1052.357873637647</v>
       </c>
       <c r="X22" t="n">
-        <v>927.0592516470756</v>
+        <v>809.7939770834521</v>
       </c>
       <c r="Y22" t="n">
-        <v>700.7164833368176</v>
+        <v>809.7939770834521</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>900.1501065113194</v>
+        <v>1750.343457313019</v>
       </c>
       <c r="C23" t="n">
-        <v>900.1501065113194</v>
+        <v>1323.442727326319</v>
       </c>
       <c r="D23" t="n">
-        <v>900.1501065113194</v>
+        <v>900.1501065113193</v>
       </c>
       <c r="E23" t="n">
         <v>474.173166659177</v>
       </c>
       <c r="F23" t="n">
-        <v>49.04898484857719</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="G23" t="n">
-        <v>49.04898484857719</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="H23" t="n">
-        <v>49.04898484857719</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I23" t="n">
-        <v>100.233644932626</v>
+        <v>100.2336449326259</v>
       </c>
       <c r="J23" t="n">
-        <v>259.088482588458</v>
+        <v>259.0884825884577</v>
       </c>
       <c r="K23" t="n">
-        <v>505.4157145809432</v>
+        <v>505.4157145809427</v>
       </c>
       <c r="L23" t="n">
-        <v>817.0029639133634</v>
+        <v>817.0029639133626</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.850098815878</v>
+        <v>1168.850098815877</v>
       </c>
       <c r="N23" t="n">
-        <v>1527.14023206753</v>
+        <v>1527.140232067529</v>
       </c>
       <c r="O23" t="n">
-        <v>1863.296465032334</v>
+        <v>1863.296465032332</v>
       </c>
       <c r="P23" t="n">
-        <v>2144.591619978898</v>
+        <v>2144.591619978895</v>
       </c>
       <c r="Q23" t="n">
-        <v>2348.004495197638</v>
+        <v>2348.004495197636</v>
       </c>
       <c r="R23" t="n">
-        <v>2452.44924242886</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="S23" t="n">
-        <v>2399.577050821878</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="T23" t="n">
-        <v>2399.577050821878</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="U23" t="n">
-        <v>2141.402925102397</v>
+        <v>2194.275116709376</v>
       </c>
       <c r="V23" t="n">
-        <v>1783.913510228647</v>
+        <v>2194.275116709376</v>
       </c>
       <c r="W23" t="n">
-        <v>1387.522160528993</v>
+        <v>2194.275116709376</v>
       </c>
       <c r="X23" t="n">
-        <v>1305.487376556429</v>
+        <v>2194.275116709376</v>
       </c>
       <c r="Y23" t="n">
-        <v>900.1501065113194</v>
+        <v>2170.191821604549</v>
       </c>
     </row>
     <row r="24">
@@ -6059,37 +6059,37 @@
         <v>183.592416182982</v>
       </c>
       <c r="G24" t="n">
-        <v>90.74774188220557</v>
+        <v>90.74774188220553</v>
       </c>
       <c r="H24" t="n">
-        <v>49.04898484857719</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I24" t="n">
-        <v>73.83891875389254</v>
+        <v>97.29622459830431</v>
       </c>
       <c r="J24" t="n">
-        <v>165.3938716666098</v>
+        <v>188.8511775110215</v>
       </c>
       <c r="K24" t="n">
-        <v>334.5760278705905</v>
+        <v>358.033333715002</v>
       </c>
       <c r="L24" t="n">
-        <v>569.5897281994012</v>
+        <v>593.0470340438125</v>
       </c>
       <c r="M24" t="n">
-        <v>846.9851226809981</v>
+        <v>870.442428525409</v>
       </c>
       <c r="N24" t="n">
-        <v>1174.802358348868</v>
+        <v>1157.521058481985</v>
       </c>
       <c r="O24" t="n">
-        <v>1433.812502676558</v>
+        <v>1416.531202809675</v>
       </c>
       <c r="P24" t="n">
-        <v>1638.549354972683</v>
+        <v>1621.268055105799</v>
       </c>
       <c r="Q24" t="n">
-        <v>1767.298649348451</v>
+        <v>1750.017349481568</v>
       </c>
       <c r="R24" t="n">
         <v>1817.4386691009</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>563.7452805845342</v>
+        <v>790.0880488947894</v>
       </c>
       <c r="C25" t="n">
-        <v>391.7727174634501</v>
+        <v>618.1154857737054</v>
       </c>
       <c r="D25" t="n">
-        <v>228.4559445902208</v>
+        <v>618.1154857737054</v>
       </c>
       <c r="E25" t="n">
-        <v>214.2922878419721</v>
+        <v>451.9072799265589</v>
       </c>
       <c r="F25" t="n">
-        <v>214.2922878419721</v>
+        <v>280.0455057011193</v>
       </c>
       <c r="G25" t="n">
-        <v>49.04898484857719</v>
+        <v>118.3338305216665</v>
       </c>
       <c r="H25" t="n">
-        <v>49.04898484857719</v>
+        <v>118.3338305216665</v>
       </c>
       <c r="I25" t="n">
-        <v>49.04898484857719</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="J25" t="n">
-        <v>176.7803915298659</v>
+        <v>126.2653698523709</v>
       </c>
       <c r="K25" t="n">
-        <v>518.7340185402717</v>
+        <v>220.9363877487545</v>
       </c>
       <c r="L25" t="n">
-        <v>788.2774020131292</v>
+        <v>723.3312822832312</v>
       </c>
       <c r="M25" t="n">
-        <v>1335.198014115475</v>
+        <v>1270.251894385577</v>
       </c>
       <c r="N25" t="n">
-        <v>1864.721316256637</v>
+        <v>1799.775196526738</v>
       </c>
       <c r="O25" t="n">
-        <v>1982.873086925014</v>
+        <v>2295.629291498319</v>
       </c>
       <c r="P25" t="n">
-        <v>2393.630972344879</v>
+        <v>2393.630972344877</v>
       </c>
       <c r="Q25" t="n">
-        <v>2452.44924242886</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="R25" t="n">
-        <v>2450.988770565094</v>
+        <v>2450.988770565091</v>
       </c>
       <c r="S25" t="n">
-        <v>2298.519169335311</v>
+        <v>2298.519169335308</v>
       </c>
       <c r="T25" t="n">
-        <v>2059.510942968623</v>
+        <v>2059.51094296862</v>
       </c>
       <c r="U25" t="n">
-        <v>1779.381785380511</v>
+        <v>1779.381785380508</v>
       </c>
       <c r="V25" t="n">
-        <v>1497.67031798854</v>
+        <v>1497.670317988537</v>
       </c>
       <c r="W25" t="n">
-        <v>1222.817914161053</v>
+        <v>1222.81791416105</v>
       </c>
       <c r="X25" t="n">
-        <v>980.2540176068577</v>
+        <v>980.254017606855</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.9112492965997</v>
+        <v>980.254017606855</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>899.2423356502768</v>
+        <v>874.4208720227896</v>
       </c>
       <c r="C26" t="n">
-        <v>472.3416056635769</v>
+        <v>874.4208720227896</v>
       </c>
       <c r="D26" t="n">
-        <v>49.04898484857718</v>
+        <v>451.1282512077899</v>
       </c>
       <c r="E26" t="n">
-        <v>49.04898484857718</v>
+        <v>451.1282512077899</v>
       </c>
       <c r="F26" t="n">
-        <v>49.04898484857718</v>
+        <v>451.1282512077899</v>
       </c>
       <c r="G26" t="n">
-        <v>49.04898484857718</v>
+        <v>49.04898484857713</v>
       </c>
       <c r="H26" t="n">
-        <v>49.04898484857718</v>
+        <v>49.04898484857713</v>
       </c>
       <c r="I26" t="n">
-        <v>100.233644932626</v>
+        <v>100.2336449326259</v>
       </c>
       <c r="J26" t="n">
-        <v>259.088482588458</v>
+        <v>259.0884825884577</v>
       </c>
       <c r="K26" t="n">
-        <v>505.4157145809432</v>
+        <v>505.4157145809427</v>
       </c>
       <c r="L26" t="n">
-        <v>817.0029639133634</v>
+        <v>817.0029639133626</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.850098815878</v>
+        <v>1168.850098815876</v>
       </c>
       <c r="N26" t="n">
-        <v>1527.14023206753</v>
+        <v>1527.140232067528</v>
       </c>
       <c r="O26" t="n">
-        <v>1863.296465032333</v>
+        <v>1863.296465032331</v>
       </c>
       <c r="P26" t="n">
-        <v>2144.591619978897</v>
+        <v>2144.591619978895</v>
       </c>
       <c r="Q26" t="n">
-        <v>2348.004495197637</v>
+        <v>2348.004495197635</v>
       </c>
       <c r="R26" t="n">
-        <v>2452.449242428859</v>
+        <v>2452.449242428856</v>
       </c>
       <c r="S26" t="n">
-        <v>2399.577050821877</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="T26" t="n">
-        <v>2188.543737081245</v>
+        <v>2188.543737081242</v>
       </c>
       <c r="U26" t="n">
-        <v>1930.369611361764</v>
+        <v>2057.09592123318</v>
       </c>
       <c r="V26" t="n">
-        <v>1572.880196488014</v>
+        <v>1699.606506359429</v>
       </c>
       <c r="W26" t="n">
-        <v>1572.880196488014</v>
+        <v>1699.606506359429</v>
       </c>
       <c r="X26" t="n">
-        <v>1304.579605695386</v>
+        <v>1699.606506359429</v>
       </c>
       <c r="Y26" t="n">
-        <v>899.2423356502768</v>
+        <v>1294.26923631432</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>603.2860421943509</v>
+        <v>603.2860421943508</v>
       </c>
       <c r="C27" t="n">
-        <v>485.7801387118557</v>
+        <v>485.7801387118556</v>
       </c>
       <c r="D27" t="n">
-        <v>381.9401802271407</v>
+        <v>381.9401802271406</v>
       </c>
       <c r="E27" t="n">
-        <v>277.2382465000779</v>
+        <v>277.2382465000778</v>
       </c>
       <c r="F27" t="n">
         <v>183.592416182982</v>
       </c>
       <c r="G27" t="n">
-        <v>90.74774188220556</v>
+        <v>90.74774188220552</v>
       </c>
       <c r="H27" t="n">
-        <v>49.04898484857718</v>
+        <v>49.04898484857713</v>
       </c>
       <c r="I27" t="n">
-        <v>97.29622459830438</v>
+        <v>73.83891875389244</v>
       </c>
       <c r="J27" t="n">
-        <v>188.8511775110217</v>
+        <v>206.1324773779049</v>
       </c>
       <c r="K27" t="n">
-        <v>358.0333337150023</v>
+        <v>375.3146335818853</v>
       </c>
       <c r="L27" t="n">
-        <v>593.047034043813</v>
+        <v>610.3283339106958</v>
       </c>
       <c r="M27" t="n">
-        <v>870.4424285254099</v>
+        <v>887.7237283922925</v>
       </c>
       <c r="N27" t="n">
-        <v>1157.521058481986</v>
+        <v>1174.802358348868</v>
       </c>
       <c r="O27" t="n">
-        <v>1416.531202809676</v>
+        <v>1433.812502676559</v>
       </c>
       <c r="P27" t="n">
-        <v>1621.268055105801</v>
+        <v>1638.549354972683</v>
       </c>
       <c r="Q27" t="n">
-        <v>1750.017349481569</v>
+        <v>1767.298649348451</v>
       </c>
       <c r="R27" t="n">
         <v>1817.4386691009</v>
@@ -6347,10 +6347,10 @@
         <v>1035.383286494458</v>
       </c>
       <c r="X27" t="n">
-        <v>871.9059402611213</v>
+        <v>871.9059402611211</v>
       </c>
       <c r="Y27" t="n">
-        <v>732.2130516144136</v>
+        <v>732.2130516144135</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>563.7452805845332</v>
+        <v>760.2687906450761</v>
       </c>
       <c r="C28" t="n">
-        <v>391.7727174634492</v>
+        <v>588.2962275239921</v>
       </c>
       <c r="D28" t="n">
-        <v>228.4559445902199</v>
+        <v>424.9794546507628</v>
       </c>
       <c r="E28" t="n">
-        <v>220.9107590740168</v>
+        <v>424.9794546507628</v>
       </c>
       <c r="F28" t="n">
-        <v>49.04898484857718</v>
+        <v>253.1176804253233</v>
       </c>
       <c r="G28" t="n">
-        <v>49.04898484857718</v>
+        <v>253.1176804253233</v>
       </c>
       <c r="H28" t="n">
-        <v>49.04898484857718</v>
+        <v>118.3338305216665</v>
       </c>
       <c r="I28" t="n">
-        <v>49.04898484857718</v>
+        <v>49.04898484857713</v>
       </c>
       <c r="J28" t="n">
-        <v>176.7803915298659</v>
+        <v>176.7803915298658</v>
       </c>
       <c r="K28" t="n">
-        <v>518.7340185402717</v>
+        <v>518.7340185402714</v>
       </c>
       <c r="L28" t="n">
-        <v>644.7400194835834</v>
+        <v>949.6601092085347</v>
       </c>
       <c r="M28" t="n">
-        <v>806.1221924343718</v>
+        <v>1496.580721310881</v>
       </c>
       <c r="N28" t="n">
-        <v>1335.645494575533</v>
+        <v>2026.104023452042</v>
       </c>
       <c r="O28" t="n">
-        <v>1831.499589547114</v>
+        <v>2144.25579412042</v>
       </c>
       <c r="P28" t="n">
-        <v>2242.257474966979</v>
+        <v>2242.257474966977</v>
       </c>
       <c r="Q28" t="n">
-        <v>2452.449242428859</v>
+        <v>2452.449242428856</v>
       </c>
       <c r="R28" t="n">
-        <v>2450.988770565093</v>
+        <v>2450.988770565091</v>
       </c>
       <c r="S28" t="n">
-        <v>2298.51916933531</v>
+        <v>2298.519169335308</v>
       </c>
       <c r="T28" t="n">
-        <v>2059.510942968622</v>
+        <v>2059.510942968619</v>
       </c>
       <c r="U28" t="n">
-        <v>1779.38178538051</v>
+        <v>1779.381785380508</v>
       </c>
       <c r="V28" t="n">
-        <v>1497.670317988539</v>
+        <v>1497.670317988536</v>
       </c>
       <c r="W28" t="n">
-        <v>1222.817914161052</v>
+        <v>1222.817914161049</v>
       </c>
       <c r="X28" t="n">
-        <v>980.2540176068568</v>
+        <v>1176.7775276674</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.9112492965988</v>
+        <v>950.4347593571417</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1325.219275502419</v>
+        <v>877.1051910599324</v>
       </c>
       <c r="C29" t="n">
-        <v>898.3185455157194</v>
+        <v>877.1051910599324</v>
       </c>
       <c r="D29" t="n">
-        <v>475.0259247007197</v>
+        <v>877.1051910599324</v>
       </c>
       <c r="E29" t="n">
-        <v>49.04898484857719</v>
+        <v>451.1282512077899</v>
       </c>
       <c r="F29" t="n">
-        <v>49.04898484857719</v>
+        <v>451.1282512077899</v>
       </c>
       <c r="G29" t="n">
-        <v>49.04898484857719</v>
+        <v>49.04898484857713</v>
       </c>
       <c r="H29" t="n">
-        <v>49.04898484857719</v>
+        <v>49.04898484857713</v>
       </c>
       <c r="I29" t="n">
-        <v>100.2336449326262</v>
+        <v>100.2336449326259</v>
       </c>
       <c r="J29" t="n">
-        <v>259.0884825884586</v>
+        <v>259.0884825884576</v>
       </c>
       <c r="K29" t="n">
-        <v>505.415714580944</v>
+        <v>505.4157145809427</v>
       </c>
       <c r="L29" t="n">
-        <v>817.0029639133643</v>
+        <v>817.0029639133626</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.850098815879</v>
+        <v>1168.850098815877</v>
       </c>
       <c r="N29" t="n">
-        <v>1527.140232067531</v>
+        <v>1527.140232067529</v>
       </c>
       <c r="O29" t="n">
-        <v>1863.296465032334</v>
+        <v>1863.296465032332</v>
       </c>
       <c r="P29" t="n">
-        <v>2144.591619978898</v>
+        <v>2144.591619978895</v>
       </c>
       <c r="Q29" t="n">
-        <v>2348.004495197638</v>
+        <v>2348.004495197636</v>
       </c>
       <c r="R29" t="n">
-        <v>2452.44924242886</v>
+        <v>2452.449242428856</v>
       </c>
       <c r="S29" t="n">
-        <v>2399.577050821878</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="T29" t="n">
-        <v>2188.543737081246</v>
+        <v>2188.543737081242</v>
       </c>
       <c r="U29" t="n">
-        <v>2188.543737081246</v>
+        <v>1930.369611361762</v>
       </c>
       <c r="V29" t="n">
-        <v>1831.054322207495</v>
+        <v>1572.880196488011</v>
       </c>
       <c r="W29" t="n">
-        <v>1831.054322207495</v>
+        <v>1176.488846788358</v>
       </c>
       <c r="X29" t="n">
-        <v>1419.334323375242</v>
+        <v>877.1051910599324</v>
       </c>
       <c r="Y29" t="n">
-        <v>1419.334323375242</v>
+        <v>877.1051910599324</v>
       </c>
     </row>
     <row r="30">
@@ -6518,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>603.2860421943509</v>
+        <v>603.2860421943508</v>
       </c>
       <c r="C30" t="n">
-        <v>485.7801387118557</v>
+        <v>485.7801387118556</v>
       </c>
       <c r="D30" t="n">
-        <v>381.9401802271407</v>
+        <v>381.9401802271406</v>
       </c>
       <c r="E30" t="n">
-        <v>277.2382465000779</v>
+        <v>277.2382465000778</v>
       </c>
       <c r="F30" t="n">
         <v>183.592416182982</v>
       </c>
       <c r="G30" t="n">
-        <v>90.74774188220557</v>
+        <v>90.74774188220552</v>
       </c>
       <c r="H30" t="n">
-        <v>49.04898484857719</v>
+        <v>49.04898484857713</v>
       </c>
       <c r="I30" t="n">
-        <v>73.83891875389254</v>
+        <v>73.83891875389244</v>
       </c>
       <c r="J30" t="n">
-        <v>165.3938716666098</v>
+        <v>165.3938716666096</v>
       </c>
       <c r="K30" t="n">
-        <v>334.5760278705905</v>
+        <v>375.3146335818853</v>
       </c>
       <c r="L30" t="n">
-        <v>569.5897281994012</v>
+        <v>610.3283339106958</v>
       </c>
       <c r="M30" t="n">
-        <v>846.9851226809981</v>
+        <v>887.7237283922925</v>
       </c>
       <c r="N30" t="n">
-        <v>1134.063752637574</v>
+        <v>1174.802358348868</v>
       </c>
       <c r="O30" t="n">
-        <v>1393.073896965265</v>
+        <v>1433.812502676559</v>
       </c>
       <c r="P30" t="n">
         <v>1638.549354972683</v>
@@ -6584,10 +6584,10 @@
         <v>1035.383286494458</v>
       </c>
       <c r="X30" t="n">
-        <v>871.9059402611213</v>
+        <v>871.9059402611211</v>
       </c>
       <c r="Y30" t="n">
-        <v>732.2130516144136</v>
+        <v>732.2130516144135</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>563.7452805845342</v>
+        <v>588.4070164196365</v>
       </c>
       <c r="C31" t="n">
-        <v>391.7727174634501</v>
+        <v>416.4344532985526</v>
       </c>
       <c r="D31" t="n">
-        <v>228.4559445902208</v>
+        <v>253.1176804253233</v>
       </c>
       <c r="E31" t="n">
-        <v>62.24773874307439</v>
+        <v>253.1176804253233</v>
       </c>
       <c r="F31" t="n">
-        <v>49.04898484857719</v>
+        <v>253.1176804253233</v>
       </c>
       <c r="G31" t="n">
-        <v>49.04898484857719</v>
+        <v>253.1176804253233</v>
       </c>
       <c r="H31" t="n">
-        <v>49.04898484857719</v>
+        <v>118.3338305216665</v>
       </c>
       <c r="I31" t="n">
-        <v>49.04898484857719</v>
+        <v>49.04898484857713</v>
       </c>
       <c r="J31" t="n">
-        <v>176.7803915298659</v>
+        <v>176.7803915298658</v>
       </c>
       <c r="K31" t="n">
-        <v>271.4514094262496</v>
+        <v>518.7340185402714</v>
       </c>
       <c r="L31" t="n">
-        <v>397.4574103695614</v>
+        <v>723.3312822832307</v>
       </c>
       <c r="M31" t="n">
-        <v>944.3780224719073</v>
+        <v>1270.251894385577</v>
       </c>
       <c r="N31" t="n">
-        <v>1473.901324613069</v>
+        <v>1799.775196526738</v>
       </c>
       <c r="O31" t="n">
-        <v>1831.499589547115</v>
+        <v>2295.629291498319</v>
       </c>
       <c r="P31" t="n">
-        <v>2242.25747496698</v>
+        <v>2393.630972344876</v>
       </c>
       <c r="Q31" t="n">
-        <v>2452.44924242886</v>
+        <v>2452.449242428856</v>
       </c>
       <c r="R31" t="n">
-        <v>2450.988770565094</v>
+        <v>2450.988770565091</v>
       </c>
       <c r="S31" t="n">
-        <v>2298.519169335311</v>
+        <v>2298.519169335308</v>
       </c>
       <c r="T31" t="n">
-        <v>2059.510942968623</v>
+        <v>2059.510942968619</v>
       </c>
       <c r="U31" t="n">
-        <v>1779.381785380511</v>
+        <v>1779.381785380508</v>
       </c>
       <c r="V31" t="n">
-        <v>1497.67031798854</v>
+        <v>1497.670317988536</v>
       </c>
       <c r="W31" t="n">
-        <v>1222.817914161053</v>
+        <v>1222.817914161049</v>
       </c>
       <c r="X31" t="n">
-        <v>980.2540176068577</v>
+        <v>980.2540176068545</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.9112492965997</v>
+        <v>778.5729851317021</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1510.521247070235</v>
+        <v>1729.682926270142</v>
       </c>
       <c r="C32" t="n">
-        <v>1083.620517083535</v>
+        <v>1729.682926270142</v>
       </c>
       <c r="D32" t="n">
-        <v>1083.620517083535</v>
+        <v>1306.390305455142</v>
       </c>
       <c r="E32" t="n">
-        <v>1083.620517083535</v>
+        <v>1150.977675233584</v>
       </c>
       <c r="F32" t="n">
         <v>725.853493422984</v>
       </c>
       <c r="G32" t="n">
-        <v>323.7742270637713</v>
+        <v>323.7742270637712</v>
       </c>
       <c r="H32" t="n">
-        <v>49.04898484857719</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I32" t="n">
-        <v>100.2336449326262</v>
+        <v>100.2336449326259</v>
       </c>
       <c r="J32" t="n">
-        <v>259.0884825884586</v>
+        <v>259.0884825884577</v>
       </c>
       <c r="K32" t="n">
-        <v>505.415714580944</v>
+        <v>505.4157145809427</v>
       </c>
       <c r="L32" t="n">
-        <v>817.0029639133643</v>
+        <v>817.0029639133626</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.850098815879</v>
+        <v>1168.850098815877</v>
       </c>
       <c r="N32" t="n">
-        <v>1527.140232067531</v>
+        <v>1527.140232067529</v>
       </c>
       <c r="O32" t="n">
-        <v>1863.296465032334</v>
+        <v>1863.296465032332</v>
       </c>
       <c r="P32" t="n">
-        <v>2144.591619978898</v>
+        <v>2144.591619978895</v>
       </c>
       <c r="Q32" t="n">
-        <v>2348.004495197638</v>
+        <v>2348.004495197636</v>
       </c>
       <c r="R32" t="n">
-        <v>2452.44924242886</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="S32" t="n">
-        <v>2399.577050821878</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="T32" t="n">
-        <v>2188.543737081246</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="U32" t="n">
-        <v>1930.369611361765</v>
+        <v>2141.402925102394</v>
       </c>
       <c r="V32" t="n">
-        <v>1930.369611361765</v>
+        <v>2141.402925102394</v>
       </c>
       <c r="W32" t="n">
-        <v>1930.369611361765</v>
+        <v>2141.402925102394</v>
       </c>
       <c r="X32" t="n">
-        <v>1930.369611361765</v>
+        <v>1729.682926270142</v>
       </c>
       <c r="Y32" t="n">
-        <v>1930.369611361765</v>
+        <v>1729.682926270142</v>
       </c>
     </row>
     <row r="33">
@@ -6770,37 +6770,37 @@
         <v>183.592416182982</v>
       </c>
       <c r="G33" t="n">
-        <v>90.74774188220557</v>
+        <v>90.74774188220553</v>
       </c>
       <c r="H33" t="n">
-        <v>49.04898484857719</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I33" t="n">
-        <v>73.83891875389254</v>
+        <v>73.83891875389246</v>
       </c>
       <c r="J33" t="n">
-        <v>165.3938716666098</v>
+        <v>206.1324773779049</v>
       </c>
       <c r="K33" t="n">
-        <v>334.5760278705905</v>
+        <v>375.3146335818853</v>
       </c>
       <c r="L33" t="n">
-        <v>569.5897281994012</v>
+        <v>610.3283339106958</v>
       </c>
       <c r="M33" t="n">
-        <v>846.9851226809981</v>
+        <v>887.7237283922925</v>
       </c>
       <c r="N33" t="n">
-        <v>1134.063752637574</v>
+        <v>1174.802358348868</v>
       </c>
       <c r="O33" t="n">
-        <v>1393.073896965265</v>
+        <v>1433.812502676559</v>
       </c>
       <c r="P33" t="n">
-        <v>1597.810749261389</v>
+        <v>1638.549354972683</v>
       </c>
       <c r="Q33" t="n">
-        <v>1726.560043637158</v>
+        <v>1767.298649348451</v>
       </c>
       <c r="R33" t="n">
         <v>1817.4386691009</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>715.6790407877874</v>
+        <v>1091.720299485617</v>
       </c>
       <c r="C34" t="n">
-        <v>715.6790407877874</v>
+        <v>919.7477363645335</v>
       </c>
       <c r="D34" t="n">
-        <v>552.3622679145581</v>
+        <v>756.4309634913042</v>
       </c>
       <c r="E34" t="n">
-        <v>386.1540620674116</v>
+        <v>590.2227576441577</v>
       </c>
       <c r="F34" t="n">
-        <v>214.2922878419721</v>
+        <v>418.3609834187181</v>
       </c>
       <c r="G34" t="n">
-        <v>49.04898484857719</v>
+        <v>253.1176804253233</v>
       </c>
       <c r="H34" t="n">
-        <v>49.04898484857719</v>
+        <v>118.3338305216665</v>
       </c>
       <c r="I34" t="n">
-        <v>49.04898484857719</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="J34" t="n">
-        <v>176.7803915298659</v>
+        <v>176.7803915298658</v>
       </c>
       <c r="K34" t="n">
-        <v>271.4514094262496</v>
+        <v>518.7340185402714</v>
       </c>
       <c r="L34" t="n">
-        <v>672.7370607948484</v>
+        <v>1021.128913074748</v>
       </c>
       <c r="M34" t="n">
-        <v>806.1221924343727</v>
+        <v>1154.514044714272</v>
       </c>
       <c r="N34" t="n">
-        <v>1335.645494575534</v>
+        <v>1335.645494575532</v>
       </c>
       <c r="O34" t="n">
-        <v>1831.499589547115</v>
+        <v>1831.499589547112</v>
       </c>
       <c r="P34" t="n">
-        <v>2242.25747496698</v>
+        <v>2242.257474966977</v>
       </c>
       <c r="Q34" t="n">
-        <v>2452.44924242886</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="R34" t="n">
-        <v>2450.988770565094</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="S34" t="n">
-        <v>2298.519169335311</v>
+        <v>2299.979641199074</v>
       </c>
       <c r="T34" t="n">
-        <v>2211.444703171876</v>
+        <v>2060.971414832386</v>
       </c>
       <c r="U34" t="n">
-        <v>1931.315545583764</v>
+        <v>1780.842257244274</v>
       </c>
       <c r="V34" t="n">
-        <v>1649.604078191793</v>
+        <v>1780.842257244274</v>
       </c>
       <c r="W34" t="n">
-        <v>1374.751674364306</v>
+        <v>1750.792933062136</v>
       </c>
       <c r="X34" t="n">
-        <v>1132.187777810111</v>
+        <v>1508.229036507941</v>
       </c>
       <c r="Y34" t="n">
-        <v>905.8450094998529</v>
+        <v>1281.886268197683</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1304.005921046632</v>
+        <v>1577.878405220284</v>
       </c>
       <c r="C35" t="n">
-        <v>877.1051910599324</v>
+        <v>1150.977675233584</v>
       </c>
       <c r="D35" t="n">
-        <v>877.1051910599324</v>
+        <v>1150.977675233584</v>
       </c>
       <c r="E35" t="n">
-        <v>451.12825120779</v>
+        <v>1150.977675233584</v>
       </c>
       <c r="F35" t="n">
-        <v>451.12825120779</v>
+        <v>725.853493422984</v>
       </c>
       <c r="G35" t="n">
-        <v>49.04898484857719</v>
+        <v>323.7742270637712</v>
       </c>
       <c r="H35" t="n">
-        <v>49.04898484857719</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I35" t="n">
         <v>100.2336449326258</v>
@@ -6940,49 +6940,49 @@
         <v>259.0884825884577</v>
       </c>
       <c r="K35" t="n">
-        <v>505.415714580943</v>
+        <v>505.4157145809427</v>
       </c>
       <c r="L35" t="n">
-        <v>817.0029639133633</v>
+        <v>817.0029639133627</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.850098815878</v>
+        <v>1168.850098815877</v>
       </c>
       <c r="N35" t="n">
-        <v>1527.14023206753</v>
+        <v>1527.140232067529</v>
       </c>
       <c r="O35" t="n">
-        <v>1863.296465032333</v>
+        <v>1863.296465032332</v>
       </c>
       <c r="P35" t="n">
-        <v>2144.591619978898</v>
+        <v>2144.591619978895</v>
       </c>
       <c r="Q35" t="n">
-        <v>2348.004495197638</v>
+        <v>2348.004495197636</v>
       </c>
       <c r="R35" t="n">
-        <v>2452.44924242886</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="S35" t="n">
-        <v>2399.577050821878</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="T35" t="n">
-        <v>2399.577050821878</v>
+        <v>2188.543737081243</v>
       </c>
       <c r="U35" t="n">
-        <v>2141.402925102397</v>
+        <v>1930.369611361762</v>
       </c>
       <c r="V35" t="n">
-        <v>2121.063189923995</v>
+        <v>1930.369611361762</v>
       </c>
       <c r="W35" t="n">
-        <v>2121.063189923995</v>
+        <v>1930.369611361762</v>
       </c>
       <c r="X35" t="n">
-        <v>1709.343191091742</v>
+        <v>1930.369611361762</v>
       </c>
       <c r="Y35" t="n">
-        <v>1304.005921046632</v>
+        <v>1577.878405220284</v>
       </c>
     </row>
     <row r="36">
@@ -7007,31 +7007,31 @@
         <v>183.592416182982</v>
       </c>
       <c r="G36" t="n">
-        <v>90.74774188220557</v>
+        <v>90.74774188220553</v>
       </c>
       <c r="H36" t="n">
-        <v>49.04898484857719</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I36" t="n">
-        <v>73.83891875389254</v>
+        <v>97.29622459830431</v>
       </c>
       <c r="J36" t="n">
-        <v>165.3938716666098</v>
+        <v>206.1324773779049</v>
       </c>
       <c r="K36" t="n">
-        <v>334.5760278705905</v>
+        <v>375.3146335818853</v>
       </c>
       <c r="L36" t="n">
-        <v>569.5897281994012</v>
+        <v>610.3283339106958</v>
       </c>
       <c r="M36" t="n">
-        <v>846.9851226809981</v>
+        <v>887.7237283922925</v>
       </c>
       <c r="N36" t="n">
-        <v>1134.063752637574</v>
+        <v>1174.802358348868</v>
       </c>
       <c r="O36" t="n">
-        <v>1433.812502676558</v>
+        <v>1433.812502676559</v>
       </c>
       <c r="P36" t="n">
         <v>1638.549354972683</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>563.7452805845342</v>
+        <v>791.6931465885658</v>
       </c>
       <c r="C37" t="n">
-        <v>391.7727174634501</v>
+        <v>619.7205834674818</v>
       </c>
       <c r="D37" t="n">
-        <v>391.7727174634501</v>
+        <v>456.4038105942525</v>
       </c>
       <c r="E37" t="n">
-        <v>283.5771335150614</v>
+        <v>290.1956047471061</v>
       </c>
       <c r="F37" t="n">
-        <v>283.5771335150614</v>
+        <v>118.3338305216665</v>
       </c>
       <c r="G37" t="n">
         <v>118.3338305216665</v>
@@ -7092,55 +7092,55 @@
         <v>118.3338305216665</v>
       </c>
       <c r="I37" t="n">
-        <v>49.04898484857719</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="J37" t="n">
-        <v>98.85867488164504</v>
+        <v>126.2653698523709</v>
       </c>
       <c r="K37" t="n">
-        <v>193.5296927780288</v>
+        <v>220.9363877487545</v>
       </c>
       <c r="L37" t="n">
-        <v>319.5356937213406</v>
+        <v>723.3312822832312</v>
       </c>
       <c r="M37" t="n">
-        <v>806.1221924343727</v>
+        <v>1270.251894385577</v>
       </c>
       <c r="N37" t="n">
-        <v>1335.645494575534</v>
+        <v>1799.775196526738</v>
       </c>
       <c r="O37" t="n">
-        <v>1831.499589547115</v>
+        <v>2295.629291498319</v>
       </c>
       <c r="P37" t="n">
-        <v>2242.25747496698</v>
+        <v>2393.630972344877</v>
       </c>
       <c r="Q37" t="n">
-        <v>2452.44924242886</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="R37" t="n">
-        <v>2450.988770565094</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="S37" t="n">
-        <v>2298.519169335311</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="T37" t="n">
-        <v>2059.510942968623</v>
+        <v>2213.441016062169</v>
       </c>
       <c r="U37" t="n">
-        <v>1779.381785380511</v>
+        <v>2007.329651384542</v>
       </c>
       <c r="V37" t="n">
-        <v>1497.67031798854</v>
+        <v>1725.618183992571</v>
       </c>
       <c r="W37" t="n">
-        <v>1222.817914161053</v>
+        <v>1450.765780165084</v>
       </c>
       <c r="X37" t="n">
-        <v>980.2540176068577</v>
+        <v>1208.201883610889</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.9112492965997</v>
+        <v>981.8591153006314</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>876.2524330183898</v>
+        <v>1750.343457313019</v>
       </c>
       <c r="C38" t="n">
-        <v>876.2524330183898</v>
+        <v>1323.442727326319</v>
       </c>
       <c r="D38" t="n">
-        <v>876.2524330183898</v>
+        <v>900.1501065113193</v>
       </c>
       <c r="E38" t="n">
-        <v>876.2524330183898</v>
+        <v>474.173166659177</v>
       </c>
       <c r="F38" t="n">
-        <v>451.12825120779</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="G38" t="n">
-        <v>49.04898484857719</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="H38" t="n">
-        <v>49.04898484857719</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I38" t="n">
-        <v>100.2336449326262</v>
+        <v>100.2336449326258</v>
       </c>
       <c r="J38" t="n">
-        <v>259.0884825884586</v>
+        <v>259.0884825884577</v>
       </c>
       <c r="K38" t="n">
-        <v>505.415714580944</v>
+        <v>505.4157145809428</v>
       </c>
       <c r="L38" t="n">
-        <v>817.0029639133643</v>
+        <v>817.0029639133628</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.850098815879</v>
+        <v>1168.850098815877</v>
       </c>
       <c r="N38" t="n">
-        <v>1527.140232067531</v>
+        <v>1527.140232067529</v>
       </c>
       <c r="O38" t="n">
-        <v>1863.296465032334</v>
+        <v>1863.296465032332</v>
       </c>
       <c r="P38" t="n">
-        <v>2144.591619978898</v>
+        <v>2144.591619978895</v>
       </c>
       <c r="Q38" t="n">
-        <v>2348.004495197638</v>
+        <v>2348.004495197636</v>
       </c>
       <c r="R38" t="n">
-        <v>2452.44924242886</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="S38" t="n">
-        <v>2399.577050821878</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="T38" t="n">
-        <v>2347.875177314886</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="U38" t="n">
-        <v>2089.701051595405</v>
+        <v>2170.191821604549</v>
       </c>
       <c r="V38" t="n">
-        <v>2089.701051595405</v>
+        <v>2170.191821604549</v>
       </c>
       <c r="W38" t="n">
-        <v>1693.309701895752</v>
+        <v>2170.191821604549</v>
       </c>
       <c r="X38" t="n">
-        <v>1281.589703063499</v>
+        <v>2170.191821604549</v>
       </c>
       <c r="Y38" t="n">
-        <v>876.2524330183898</v>
+        <v>2170.191821604549</v>
       </c>
     </row>
     <row r="39">
@@ -7244,31 +7244,31 @@
         <v>183.592416182982</v>
       </c>
       <c r="G39" t="n">
-        <v>90.74774188220557</v>
+        <v>90.74774188220553</v>
       </c>
       <c r="H39" t="n">
-        <v>49.04898484857719</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I39" t="n">
-        <v>73.83891875389254</v>
+        <v>73.83891875389246</v>
       </c>
       <c r="J39" t="n">
-        <v>165.3938716666098</v>
+        <v>206.1324773779049</v>
       </c>
       <c r="K39" t="n">
-        <v>334.5760278705905</v>
+        <v>375.3146335818853</v>
       </c>
       <c r="L39" t="n">
-        <v>569.5897281994012</v>
+        <v>610.3283339106958</v>
       </c>
       <c r="M39" t="n">
-        <v>846.9851226809981</v>
+        <v>887.7237283922925</v>
       </c>
       <c r="N39" t="n">
-        <v>1134.063752637574</v>
+        <v>1174.802358348868</v>
       </c>
       <c r="O39" t="n">
-        <v>1433.812502676558</v>
+        <v>1433.812502676559</v>
       </c>
       <c r="P39" t="n">
         <v>1638.549354972683</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.0880488947921</v>
+        <v>996.3440394024265</v>
       </c>
       <c r="C40" t="n">
-        <v>618.1154857737081</v>
+        <v>824.3714762813424</v>
       </c>
       <c r="D40" t="n">
-        <v>454.7987129004788</v>
+        <v>687.1461178182149</v>
       </c>
       <c r="E40" t="n">
-        <v>288.5905070533323</v>
+        <v>520.9379119710684</v>
       </c>
       <c r="F40" t="n">
-        <v>253.1176804253233</v>
+        <v>349.0761377456288</v>
       </c>
       <c r="G40" t="n">
-        <v>253.1176804253233</v>
+        <v>183.8328347522339</v>
       </c>
       <c r="H40" t="n">
-        <v>118.3338305216665</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I40" t="n">
-        <v>49.04898484857719</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="J40" t="n">
-        <v>98.85867488164504</v>
+        <v>176.7803915298658</v>
       </c>
       <c r="K40" t="n">
-        <v>440.8123018920509</v>
+        <v>271.4514094262494</v>
       </c>
       <c r="L40" t="n">
-        <v>566.8183028353626</v>
+        <v>773.8463039607261</v>
       </c>
       <c r="M40" t="n">
-        <v>806.1221924343727</v>
+        <v>907.2314356002503</v>
       </c>
       <c r="N40" t="n">
-        <v>1335.645494575534</v>
+        <v>1436.754737741412</v>
       </c>
       <c r="O40" t="n">
-        <v>1831.499589547115</v>
+        <v>1831.499589547112</v>
       </c>
       <c r="P40" t="n">
-        <v>2242.25747496698</v>
+        <v>2242.257474966977</v>
       </c>
       <c r="Q40" t="n">
-        <v>2452.44924242886</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="R40" t="n">
-        <v>2450.988770565094</v>
+        <v>2450.988770565091</v>
       </c>
       <c r="S40" t="n">
-        <v>2298.519169335311</v>
+        <v>2450.988770565091</v>
       </c>
       <c r="T40" t="n">
-        <v>2059.510942968623</v>
+        <v>2211.980544198403</v>
       </c>
       <c r="U40" t="n">
-        <v>1779.381785380511</v>
+        <v>2211.980544198403</v>
       </c>
       <c r="V40" t="n">
-        <v>1497.67031798854</v>
+        <v>1930.269076806432</v>
       </c>
       <c r="W40" t="n">
-        <v>1222.817914161053</v>
+        <v>1655.416672978945</v>
       </c>
       <c r="X40" t="n">
-        <v>980.2540176068577</v>
+        <v>1412.85277642475</v>
       </c>
       <c r="Y40" t="n">
-        <v>980.2540176068577</v>
+        <v>1186.510008114492</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1301.32160200949</v>
+        <v>1750.343457313019</v>
       </c>
       <c r="C41" t="n">
-        <v>874.4208720227897</v>
+        <v>1323.442727326319</v>
       </c>
       <c r="D41" t="n">
-        <v>451.12825120779</v>
+        <v>900.1501065113193</v>
       </c>
       <c r="E41" t="n">
-        <v>451.12825120779</v>
+        <v>474.173166659177</v>
       </c>
       <c r="F41" t="n">
-        <v>451.12825120779</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="G41" t="n">
-        <v>49.04898484857718</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="H41" t="n">
-        <v>49.04898484857718</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I41" t="n">
-        <v>100.233644932626</v>
+        <v>100.2336449326258</v>
       </c>
       <c r="J41" t="n">
-        <v>259.088482588458</v>
+        <v>259.0884825884577</v>
       </c>
       <c r="K41" t="n">
-        <v>505.4157145809432</v>
+        <v>505.4157145809427</v>
       </c>
       <c r="L41" t="n">
-        <v>817.0029639133634</v>
+        <v>817.0029639133627</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.850098815878</v>
+        <v>1168.850098815877</v>
       </c>
       <c r="N41" t="n">
-        <v>1527.14023206753</v>
+        <v>1527.140232067529</v>
       </c>
       <c r="O41" t="n">
-        <v>1863.296465032334</v>
+        <v>1863.296465032332</v>
       </c>
       <c r="P41" t="n">
-        <v>2144.591619978897</v>
+        <v>2144.591619978895</v>
       </c>
       <c r="Q41" t="n">
-        <v>2348.004495197638</v>
+        <v>2348.004495197636</v>
       </c>
       <c r="R41" t="n">
-        <v>2452.449242428859</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="S41" t="n">
-        <v>2399.577050821877</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="T41" t="n">
-        <v>2399.577050821877</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="U41" t="n">
-        <v>2141.402925102397</v>
+        <v>2170.191821604549</v>
       </c>
       <c r="V41" t="n">
-        <v>2141.402925102397</v>
+        <v>2170.191821604549</v>
       </c>
       <c r="W41" t="n">
-        <v>2126.50723634613</v>
+        <v>2170.191821604549</v>
       </c>
       <c r="X41" t="n">
-        <v>2126.50723634613</v>
+        <v>2170.191821604549</v>
       </c>
       <c r="Y41" t="n">
-        <v>1721.16996630102</v>
+        <v>2170.191821604549</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1238.29661552231</v>
+        <v>603.2860421943509</v>
       </c>
       <c r="C42" t="n">
-        <v>1120.790712039815</v>
+        <v>485.7801387118557</v>
       </c>
       <c r="D42" t="n">
-        <v>1016.9507535551</v>
+        <v>381.9401802271407</v>
       </c>
       <c r="E42" t="n">
-        <v>912.248819828037</v>
+        <v>277.2382465000779</v>
       </c>
       <c r="F42" t="n">
-        <v>818.6029895109411</v>
+        <v>183.592416182982</v>
       </c>
       <c r="G42" t="n">
-        <v>725.7583152101647</v>
+        <v>90.74774188220553</v>
       </c>
       <c r="H42" t="n">
-        <v>684.0595581765364</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I42" t="n">
-        <v>708.8494920818517</v>
+        <v>97.29622459830431</v>
       </c>
       <c r="J42" t="n">
-        <v>800.404444994569</v>
+        <v>188.8511775110215</v>
       </c>
       <c r="K42" t="n">
-        <v>969.5866011985496</v>
+        <v>358.033333715002</v>
       </c>
       <c r="L42" t="n">
-        <v>1204.60030152736</v>
+        <v>593.0470340438125</v>
       </c>
       <c r="M42" t="n">
-        <v>1481.995696008957</v>
+        <v>870.442428525409</v>
       </c>
       <c r="N42" t="n">
-        <v>1769.074325965533</v>
+        <v>1157.521058481985</v>
       </c>
       <c r="O42" t="n">
-        <v>2028.084470293224</v>
+        <v>1416.531202809675</v>
       </c>
       <c r="P42" t="n">
-        <v>2232.821322589348</v>
+        <v>1621.268055105799</v>
       </c>
       <c r="Q42" t="n">
-        <v>2402.30922267641</v>
+        <v>1750.017349481568</v>
       </c>
       <c r="R42" t="n">
-        <v>2452.449242428859</v>
+        <v>1817.4386691009</v>
       </c>
       <c r="S42" t="n">
-        <v>2393.583450405283</v>
+        <v>1758.572877077324</v>
       </c>
       <c r="T42" t="n">
-        <v>2256.577026043348</v>
+        <v>1621.566452715389</v>
       </c>
       <c r="U42" t="n">
-        <v>2071.888375849934</v>
+        <v>1436.877802521975</v>
       </c>
       <c r="V42" t="n">
-        <v>1866.9152369892</v>
+        <v>1231.904663661241</v>
       </c>
       <c r="W42" t="n">
-        <v>1670.393859822417</v>
+        <v>1035.383286494458</v>
       </c>
       <c r="X42" t="n">
-        <v>1506.91651358908</v>
+        <v>871.9059402611213</v>
       </c>
       <c r="Y42" t="n">
-        <v>1367.223624942372</v>
+        <v>732.2130516144136</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>756.4309634913043</v>
+        <v>1091.720299485617</v>
       </c>
       <c r="C43" t="n">
-        <v>756.4309634913043</v>
+        <v>919.7477363645335</v>
       </c>
       <c r="D43" t="n">
-        <v>756.4309634913043</v>
+        <v>756.4309634913042</v>
       </c>
       <c r="E43" t="n">
-        <v>590.2227576441578</v>
+        <v>590.2227576441577</v>
       </c>
       <c r="F43" t="n">
-        <v>418.3609834187182</v>
+        <v>418.3609834187181</v>
       </c>
       <c r="G43" t="n">
         <v>253.1176804253233</v>
@@ -7566,55 +7566,55 @@
         <v>118.3338305216665</v>
       </c>
       <c r="I43" t="n">
-        <v>49.04898484857718</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="J43" t="n">
-        <v>98.85867488164503</v>
+        <v>98.85867488164493</v>
       </c>
       <c r="K43" t="n">
-        <v>440.8123018920508</v>
+        <v>193.5296927780286</v>
       </c>
       <c r="L43" t="n">
-        <v>566.8183028353626</v>
+        <v>695.9245873125053</v>
       </c>
       <c r="M43" t="n">
-        <v>1113.738914937709</v>
+        <v>1242.845199414851</v>
       </c>
       <c r="N43" t="n">
-        <v>1643.26221707887</v>
+        <v>1772.368501556013</v>
       </c>
       <c r="O43" t="n">
-        <v>1831.499589547115</v>
+        <v>2268.222596527594</v>
       </c>
       <c r="P43" t="n">
-        <v>2242.25747496698</v>
+        <v>2393.630972344877</v>
       </c>
       <c r="Q43" t="n">
-        <v>2452.449242428859</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="R43" t="n">
-        <v>2450.988770565094</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="S43" t="n">
-        <v>2298.51916933531</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="T43" t="n">
-        <v>2252.196625875393</v>
+        <v>2305.774494477735</v>
       </c>
       <c r="U43" t="n">
-        <v>1972.067468287281</v>
+        <v>2025.645336889623</v>
       </c>
       <c r="V43" t="n">
-        <v>1690.35600089531</v>
+        <v>2025.645336889623</v>
       </c>
       <c r="W43" t="n">
-        <v>1415.503597067823</v>
+        <v>1750.792933062136</v>
       </c>
       <c r="X43" t="n">
-        <v>1172.939700513628</v>
+        <v>1508.229036507941</v>
       </c>
       <c r="Y43" t="n">
-        <v>946.59693220337</v>
+        <v>1281.886268197683</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1178.000066785585</v>
+        <v>1750.343457313019</v>
       </c>
       <c r="C44" t="n">
-        <v>751.0993367988847</v>
+        <v>1323.442727326319</v>
       </c>
       <c r="D44" t="n">
-        <v>751.0993367988847</v>
+        <v>900.1501065113193</v>
       </c>
       <c r="E44" t="n">
-        <v>751.0993367988847</v>
+        <v>474.173166659177</v>
       </c>
       <c r="F44" t="n">
-        <v>325.9751549882849</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="G44" t="n">
-        <v>49.04898484857718</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="H44" t="n">
-        <v>49.04898484857718</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I44" t="n">
-        <v>100.2336449326263</v>
+        <v>100.2336449326259</v>
       </c>
       <c r="J44" t="n">
-        <v>259.0884825884582</v>
+        <v>259.0884825884577</v>
       </c>
       <c r="K44" t="n">
-        <v>505.4157145809434</v>
+        <v>505.4157145809426</v>
       </c>
       <c r="L44" t="n">
-        <v>817.0029639133636</v>
+        <v>817.0029639133624</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.850098815878</v>
+        <v>1168.850098815877</v>
       </c>
       <c r="N44" t="n">
-        <v>1527.14023206753</v>
+        <v>1527.140232067528</v>
       </c>
       <c r="O44" t="n">
-        <v>1863.296465032334</v>
+        <v>1863.296465032332</v>
       </c>
       <c r="P44" t="n">
-        <v>2144.591619978898</v>
+        <v>2144.591619978895</v>
       </c>
       <c r="Q44" t="n">
-        <v>2348.004495197638</v>
+        <v>2348.004495197636</v>
       </c>
       <c r="R44" t="n">
-        <v>2452.449242428859</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="S44" t="n">
-        <v>2399.577050821877</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="T44" t="n">
-        <v>2399.577050821877</v>
+        <v>2399.577050821875</v>
       </c>
       <c r="U44" t="n">
-        <v>2399.577050821877</v>
+        <v>2170.191821604549</v>
       </c>
       <c r="V44" t="n">
-        <v>2399.577050821877</v>
+        <v>2170.191821604549</v>
       </c>
       <c r="W44" t="n">
-        <v>2003.185701122224</v>
+        <v>2170.191821604549</v>
       </c>
       <c r="X44" t="n">
-        <v>2003.185701122224</v>
+        <v>2170.191821604549</v>
       </c>
       <c r="Y44" t="n">
-        <v>1597.848431077115</v>
+        <v>2170.191821604549</v>
       </c>
     </row>
     <row r="45">
@@ -7718,37 +7718,37 @@
         <v>183.592416182982</v>
       </c>
       <c r="G45" t="n">
-        <v>90.74774188220556</v>
+        <v>90.74774188220553</v>
       </c>
       <c r="H45" t="n">
-        <v>49.04898484857718</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="I45" t="n">
-        <v>73.83891875389254</v>
+        <v>97.29622459830429</v>
       </c>
       <c r="J45" t="n">
-        <v>165.3938716666098</v>
+        <v>188.8511775110214</v>
       </c>
       <c r="K45" t="n">
-        <v>334.5760278705905</v>
+        <v>358.0333337150018</v>
       </c>
       <c r="L45" t="n">
-        <v>569.5897281994012</v>
+        <v>593.0470340438122</v>
       </c>
       <c r="M45" t="n">
-        <v>846.9851226809981</v>
+        <v>870.4424285254088</v>
       </c>
       <c r="N45" t="n">
-        <v>1134.063752637574</v>
+        <v>1157.521058481985</v>
       </c>
       <c r="O45" t="n">
-        <v>1433.812502676558</v>
+        <v>1416.531202809675</v>
       </c>
       <c r="P45" t="n">
-        <v>1638.549354972683</v>
+        <v>1621.268055105799</v>
       </c>
       <c r="Q45" t="n">
-        <v>1767.298649348451</v>
+        <v>1750.017349481567</v>
       </c>
       <c r="R45" t="n">
         <v>1817.4386691009</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.4769964922226</v>
+        <v>999.3868210700514</v>
       </c>
       <c r="C46" t="n">
-        <v>754.5044333711386</v>
+        <v>827.4142579489674</v>
       </c>
       <c r="D46" t="n">
-        <v>591.1876604979093</v>
+        <v>664.0974850757381</v>
       </c>
       <c r="E46" t="n">
-        <v>424.9794546507629</v>
+        <v>497.8892792285916</v>
       </c>
       <c r="F46" t="n">
-        <v>253.1176804253233</v>
+        <v>326.027505003152</v>
       </c>
       <c r="G46" t="n">
         <v>253.1176804253233</v>
@@ -7803,55 +7803,55 @@
         <v>118.3338305216665</v>
       </c>
       <c r="I46" t="n">
-        <v>49.04898484857718</v>
+        <v>49.04898484857714</v>
       </c>
       <c r="J46" t="n">
-        <v>176.7803915298659</v>
+        <v>176.7803915298658</v>
       </c>
       <c r="K46" t="n">
-        <v>518.7340185402717</v>
+        <v>271.4514094262494</v>
       </c>
       <c r="L46" t="n">
-        <v>1021.128913074748</v>
+        <v>397.457410369561</v>
       </c>
       <c r="M46" t="n">
-        <v>1355.528612654152</v>
+        <v>944.3780224719069</v>
       </c>
       <c r="N46" t="n">
-        <v>1487.018991953433</v>
+        <v>1473.901324613068</v>
       </c>
       <c r="O46" t="n">
-        <v>1982.873086925014</v>
+        <v>1969.755419584649</v>
       </c>
       <c r="P46" t="n">
-        <v>2393.630972344879</v>
+        <v>2242.257474966977</v>
       </c>
       <c r="Q46" t="n">
-        <v>2452.449242428859</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="R46" t="n">
-        <v>2450.988770565094</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="S46" t="n">
-        <v>2298.51916933531</v>
+        <v>2452.449242428857</v>
       </c>
       <c r="T46" t="n">
-        <v>2059.510942968622</v>
+        <v>2213.441016062169</v>
       </c>
       <c r="U46" t="n">
-        <v>1779.38178538051</v>
+        <v>1933.311858474057</v>
       </c>
       <c r="V46" t="n">
-        <v>1497.670317988539</v>
+        <v>1933.311858474057</v>
       </c>
       <c r="W46" t="n">
-        <v>1222.817914161052</v>
+        <v>1658.45945464657</v>
       </c>
       <c r="X46" t="n">
-        <v>1222.817914161052</v>
+        <v>1415.895558092375</v>
       </c>
       <c r="Y46" t="n">
-        <v>1116.642965204288</v>
+        <v>1189.552789782117</v>
       </c>
     </row>
   </sheetData>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>70.37539003541903</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.06963836310818</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>360.0219516362448</v>
       </c>
       <c r="M13" t="n">
-        <v>354.408290547965</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>238.4632771331223</v>
+        <v>366.2873004017981</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>81.74051767574694</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>256.4382709420381</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>239.2050974761155</v>
+        <v>70.37539003541804</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9090,22 +9090,22 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>360.0219516362448</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>354.4082905479649</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>355.4735849779359</v>
       </c>
       <c r="O16" t="n">
         <v>366.2873004017981</v>
       </c>
       <c r="P16" t="n">
-        <v>43.24758528263818</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>47.79595194094711</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>229.8856284348191</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>242.0634916556459</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.37539003541778</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,22 +9321,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.09516642529004</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>354.4082905479649</v>
       </c>
       <c r="N19" t="n">
-        <v>355.4735849779359</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>366.2873004017981</v>
+        <v>50.95854331539985</v>
       </c>
       <c r="P19" t="n">
         <v>315.9153581548562</v>
@@ -9479,19 +9479,19 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>275.0289943327833</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>90.39941839919109</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.37539003541778</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M22" t="n">
-        <v>128.6020535806013</v>
+        <v>354.4082905479649</v>
       </c>
       <c r="N22" t="n">
-        <v>355.4735849779359</v>
+        <v>159.7544724379495</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>41.15010677908435</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>17.4558584513975</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,13 +9795,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>27.68353027346055</v>
       </c>
       <c r="K25" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>144.9872550803492</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
         <v>417.7126065281028</v>
@@ -9810,10 +9810,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>41.15010677908616</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>17.45585845139561</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10038,19 +10038,19 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>308.0000906312641</v>
       </c>
       <c r="M28" t="n">
-        <v>28.27983970834759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>152.9025226039384</v>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>41.15010677908617</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>41.1501067790843</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10272,10 +10272,10 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>79.38511393903798</v>
       </c>
       <c r="M31" t="n">
         <v>417.7126065281028</v>
@@ -10284,13 +10284,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>241.8651457228977</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>41.15010677908616</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>41.15010677908435</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,16 +10509,16 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>278.0602529548354</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>402.0534574160406</v>
+        <v>50.1424955171496</v>
       </c>
       <c r="O34" t="n">
         <v>381.5174992961649</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>17.4558584513974</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>41.15010677908435</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10743,16 +10743,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>27.68353027346055</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>356.7690576500079</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
@@ -10761,10 +10761,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>41.15010677908616</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>41.15010677908435</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10980,22 +10980,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>106.9886444035211</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>279.3869506437608</v>
       </c>
       <c r="P40" t="n">
         <v>315.9153581548562</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>41.15010677908438</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>17.4558584513975</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,10 +11220,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
         <v>417.7126065281028</v>
@@ -11232,13 +11232,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>70.79353717158281</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>27.68353027346011</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>41.15010677908435</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>17.45585845139776</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>203.0450181210899</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>176.2630045815871</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.90941067458685</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>157.7374407288117</v>
       </c>
       <c r="U11" t="n">
         <v>255.632988972596</v>
@@ -23320,13 +23320,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>71.70142776365958</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>19.15117553280709</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>163.8185422817731</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>11.68284247578065</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>154.9126128011615</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>140.5902135799</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -23506,13 +23506,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>15.71895186012148</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>277.176001558223</v>
+        <v>219.2858334353794</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>79.29668485162334</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>210.4700303906503</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,13 +23734,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>249.1494977510366</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23791,13 +23791,13 @@
         <v>255.632988972596</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>305.495251716725</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>128.9073711041195</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>31.64638355613869</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>47.37320566779158</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -23980,10 +23980,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>277.176001558223</v>
@@ -24022,22 +24022,22 @@
         <v>63.90941067458683</v>
       </c>
       <c r="T20" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V20" t="n">
-        <v>59.15190743072947</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I22" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S22" t="n">
         <v>154.9126128011615</v>
       </c>
       <c r="T22" t="n">
-        <v>237.5909258267186</v>
+        <v>34.75323235483478</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>202.2780553242045</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>52.34346969091205</v>
       </c>
       <c r="T23" t="n">
         <v>208.9229806032259</v>
@@ -24265,16 +24265,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>326.3883627110915</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>377.4414351908795</v>
       </c>
     </row>
     <row r="24">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>150.5241036079087</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3.496311535802676</v>
       </c>
       <c r="H25" t="n">
         <v>133.4360114046202</v>
       </c>
       <c r="I25" t="n">
-        <v>68.59199721635845</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>398.0584736956206</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>271.9779897930421</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>125.459046772704</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>141.9852139592293</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>157.0763901276339</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>163.5908699634609</v>
       </c>
       <c r="H28" t="n">
-        <v>133.4360114046202</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>68.59199721635845</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>194.5582749599397</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>322.47598325452</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.0584736956206</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>271.9779897930421</v>
@@ -24736,16 +24736,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.5923844622858</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>111.2129796727887</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>157.0763901276329</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>163.5908699634609</v>
       </c>
       <c r="H31" t="n">
-        <v>133.4360114046202</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.59199721635845</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>24.41511847675451</v>
       </c>
     </row>
     <row r="32">
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>267.8586665342784</v>
       </c>
       <c r="F32" t="n">
-        <v>66.68358656854815</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>208.9229806032259</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>133.4360114046202</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.59199721635845</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.445867145127849</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>150.4144226012203</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>242.3550488488957</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25162,16 +25162,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>271.9779897930421</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>208.9229806032259</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>333.7781828983946</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>52.31760326459471</v>
       </c>
     </row>
     <row r="36">
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>57.43249567977014</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.5908699634609</v>
       </c>
       <c r="H37" t="n">
         <v>133.4360114046202</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.445867145127849</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>150.9449052174855</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>73.27761498138051</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.0584736956206</v>
       </c>
       <c r="H38" t="n">
         <v>271.9779897930421</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>157.7381258313039</v>
+        <v>208.9229806032259</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>28.50100753713264</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>25.83050026600071</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>135.0250581214563</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5908699634609</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>68.59199721635846</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>150.9449052174855</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3278660122306</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25636,13 +25636,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.0584736956206</v>
       </c>
       <c r="H41" t="n">
         <v>271.9779897930421</v>
@@ -25684,19 +25684,19 @@
         <v>208.9229806032259</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>28.50100753713264</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>377.6807043339521</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1.445867145127849</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>150.9449052174855</v>
       </c>
       <c r="T43" t="n">
-        <v>190.7588260777029</v>
+        <v>91.41014363141025</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25870,16 +25870,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>123.90156525731</v>
+        <v>398.0584736956206</v>
       </c>
       <c r="H44" t="n">
         <v>271.9779897930421</v>
@@ -25921,19 +25921,19 @@
         <v>208.9229806032259</v>
       </c>
       <c r="U44" t="n">
-        <v>255.5923844622858</v>
+        <v>28.50100753713264</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5908699634609</v>
+        <v>91.41014363141053</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.445867145127856</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>150.9449052174855</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>118.9661411599591</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>350555.7389874795</v>
+        <v>350555.7389874796</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>418053.8450903106</v>
+        <v>418053.8450903103</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>418053.8450903104</v>
+        <v>418053.8450903102</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>418053.8450903105</v>
+        <v>418053.8450903103</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>418053.8450903105</v>
+        <v>418053.8450903103</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>418053.8450903105</v>
+        <v>418053.8450903103</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>418053.8450903106</v>
+        <v>418053.8450903104</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>418053.8450903105</v>
+        <v>418053.8450903104</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>387286.1177035269</v>
+      </c>
+      <c r="C2" t="n">
         <v>387286.1177035271</v>
       </c>
-      <c r="C2" t="n">
-        <v>387286.117703527</v>
-      </c>
       <c r="D2" t="n">
-        <v>387294.3584828653</v>
+        <v>387294.3584828654</v>
       </c>
       <c r="E2" t="n">
+        <v>207588.5315831481</v>
+      </c>
+      <c r="F2" t="n">
         <v>207588.531583148</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>207588.5315831481</v>
-      </c>
-      <c r="G2" t="n">
-        <v>207588.531583148</v>
       </c>
       <c r="H2" t="n">
         <v>207588.531583148</v>
       </c>
       <c r="I2" t="n">
-        <v>252360.8519564359</v>
+        <v>252360.8519564355</v>
       </c>
       <c r="J2" t="n">
-        <v>252360.8519564358</v>
+        <v>252360.8519564356</v>
       </c>
       <c r="K2" t="n">
-        <v>252360.8519564358</v>
+        <v>252360.8519564356</v>
       </c>
       <c r="L2" t="n">
-        <v>252360.8519564359</v>
+        <v>252360.8519564356</v>
       </c>
       <c r="M2" t="n">
-        <v>252360.8519564359</v>
+        <v>252360.8519564356</v>
       </c>
       <c r="N2" t="n">
-        <v>252360.8519564359</v>
+        <v>252360.8519564357</v>
       </c>
       <c r="O2" t="n">
-        <v>252360.8519564359</v>
+        <v>252360.8519564356</v>
       </c>
       <c r="P2" t="n">
-        <v>252360.8519564358</v>
+        <v>252360.8519564356</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>32673.69813039072</v>
       </c>
       <c r="E3" t="n">
-        <v>450402.414459779</v>
+        <v>450402.4144597792</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>137495.0702174706</v>
+        <v>137495.0702174701</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>320775.5268176608</v>
       </c>
       <c r="C4" t="n">
-        <v>320775.5268176608</v>
+        <v>320775.5268176607</v>
       </c>
       <c r="D4" t="n">
         <v>311247.9244810893</v>
       </c>
       <c r="E4" t="n">
-        <v>20344.99293571915</v>
+        <v>20344.99293571914</v>
       </c>
       <c r="F4" t="n">
-        <v>20344.99293571912</v>
+        <v>20344.99293571913</v>
       </c>
       <c r="G4" t="n">
         <v>20344.99293571912</v>
@@ -26438,28 +26438,28 @@
         <v>20344.99293571912</v>
       </c>
       <c r="I4" t="n">
-        <v>16636.68825458588</v>
+        <v>16636.68825458589</v>
       </c>
       <c r="J4" t="n">
-        <v>16636.68825458587</v>
+        <v>16636.68825458589</v>
       </c>
       <c r="K4" t="n">
-        <v>16636.68825458588</v>
+        <v>16636.68825458589</v>
       </c>
       <c r="L4" t="n">
-        <v>16636.68825458588</v>
+        <v>16636.68825458589</v>
       </c>
       <c r="M4" t="n">
-        <v>16636.68825458588</v>
+        <v>16636.68825458589</v>
       </c>
       <c r="N4" t="n">
-        <v>16636.68825458588</v>
+        <v>16636.68825458589</v>
       </c>
       <c r="O4" t="n">
-        <v>16636.68825458588</v>
+        <v>16636.68825458589</v>
       </c>
       <c r="P4" t="n">
-        <v>16636.68825458588</v>
+        <v>16636.6882545859</v>
       </c>
     </row>
     <row r="5">
@@ -26490,28 +26490,28 @@
         <v>36949.30081304155</v>
       </c>
       <c r="I5" t="n">
-        <v>49408.99443194095</v>
+        <v>49408.9944319409</v>
       </c>
       <c r="J5" t="n">
-        <v>49408.99443194094</v>
+        <v>49408.9944319409</v>
       </c>
       <c r="K5" t="n">
-        <v>49408.99443194095</v>
+        <v>49408.9944319409</v>
       </c>
       <c r="L5" t="n">
-        <v>49408.99443194095</v>
+        <v>49408.9944319409</v>
       </c>
       <c r="M5" t="n">
-        <v>49408.99443194095</v>
+        <v>49408.9944319409</v>
       </c>
       <c r="N5" t="n">
-        <v>49408.99443194095</v>
+        <v>49408.9944319409</v>
       </c>
       <c r="O5" t="n">
-        <v>49408.99443194094</v>
+        <v>49408.9944319409</v>
       </c>
       <c r="P5" t="n">
-        <v>49408.99443194094</v>
+        <v>49408.9944319409</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32882.99088586634</v>
+        <v>32861.27724436982</v>
       </c>
       <c r="C6" t="n">
-        <v>32882.99088586622</v>
+        <v>32861.27724437005</v>
       </c>
       <c r="D6" t="n">
-        <v>8913.427586323931</v>
+        <v>8891.744466232612</v>
       </c>
       <c r="E6" t="n">
-        <v>-300108.1766253918</v>
+        <v>-300795.4368821487</v>
       </c>
       <c r="F6" t="n">
-        <v>150294.2378343874</v>
+        <v>149606.9775776303</v>
       </c>
       <c r="G6" t="n">
-        <v>150294.2378343873</v>
+        <v>149606.9775776304</v>
       </c>
       <c r="H6" t="n">
-        <v>150294.2378343873</v>
+        <v>149606.9775776303</v>
       </c>
       <c r="I6" t="n">
-        <v>48820.09905243848</v>
+        <v>48298.66220447164</v>
       </c>
       <c r="J6" t="n">
-        <v>186315.169269909</v>
+        <v>185793.7324219417</v>
       </c>
       <c r="K6" t="n">
-        <v>186315.169269909</v>
+        <v>185793.7324219418</v>
       </c>
       <c r="L6" t="n">
-        <v>186315.169269909</v>
+        <v>185793.7324219418</v>
       </c>
       <c r="M6" t="n">
-        <v>73313.09812741319</v>
+        <v>72791.66127944595</v>
       </c>
       <c r="N6" t="n">
-        <v>186315.1692699091</v>
+        <v>185793.7324219418</v>
       </c>
       <c r="O6" t="n">
-        <v>186315.169269909</v>
+        <v>185793.7324219418</v>
       </c>
       <c r="P6" t="n">
-        <v>186315.169269909</v>
+        <v>185793.7324219418</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>38.15175619547406</v>
       </c>
       <c r="E3" t="n">
-        <v>430.2483758469459</v>
+        <v>430.248375846946</v>
       </c>
       <c r="F3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.248375846946</v>
       </c>
       <c r="G3" t="n">
         <v>430.2483758469461</v>
@@ -26758,28 +26758,28 @@
         <v>430.2483758469461</v>
       </c>
       <c r="I3" t="n">
-        <v>556.5030250927655</v>
+        <v>556.503025092765</v>
       </c>
       <c r="J3" t="n">
-        <v>556.5030250927655</v>
+        <v>556.503025092765</v>
       </c>
       <c r="K3" t="n">
-        <v>556.5030250927655</v>
+        <v>556.503025092765</v>
       </c>
       <c r="L3" t="n">
-        <v>556.5030250927655</v>
+        <v>556.503025092765</v>
       </c>
       <c r="M3" t="n">
-        <v>556.5030250927655</v>
+        <v>556.503025092765</v>
       </c>
       <c r="N3" t="n">
-        <v>556.5030250927655</v>
+        <v>556.503025092765</v>
       </c>
       <c r="O3" t="n">
-        <v>556.5030250927655</v>
+        <v>556.503025092765</v>
       </c>
       <c r="P3" t="n">
-        <v>556.5030250927655</v>
+        <v>556.5030250927649</v>
       </c>
     </row>
     <row r="4">
@@ -26810,28 +26810,28 @@
         <v>453.4520759799035</v>
       </c>
       <c r="I4" t="n">
-        <v>613.1123106072149</v>
+        <v>613.1123106072142</v>
       </c>
       <c r="J4" t="n">
-        <v>613.1123106072147</v>
+        <v>613.1123106072141</v>
       </c>
       <c r="K4" t="n">
-        <v>613.1123106072149</v>
+        <v>613.1123106072141</v>
       </c>
       <c r="L4" t="n">
-        <v>613.1123106072149</v>
+        <v>613.1123106072142</v>
       </c>
       <c r="M4" t="n">
-        <v>613.1123106072149</v>
+        <v>613.1123106072142</v>
       </c>
       <c r="N4" t="n">
-        <v>613.1123106072149</v>
+        <v>613.1123106072142</v>
       </c>
       <c r="O4" t="n">
-        <v>613.1123106072148</v>
+        <v>613.1123106072142</v>
       </c>
       <c r="P4" t="n">
-        <v>613.1123106072148</v>
+        <v>613.1123106072142</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>38.15175619547406</v>
       </c>
       <c r="E3" t="n">
-        <v>392.0966196514718</v>
+        <v>392.096619651472</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>126.2546492458194</v>
+        <v>126.2546492458189</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>159.6602346273114</v>
+        <v>159.6602346273107</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,31 +31755,31 @@
         <v>1.72964171194752</v>
       </c>
       <c r="H11" t="n">
-        <v>17.71369318248254</v>
+        <v>17.71369318248255</v>
       </c>
       <c r="I11" t="n">
-        <v>66.68201209985682</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J11" t="n">
         <v>146.801178249406</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0169119161445</v>
+        <v>220.0169119161446</v>
       </c>
       <c r="L11" t="n">
-        <v>272.9504344581584</v>
+        <v>272.9504344581586</v>
       </c>
       <c r="M11" t="n">
-        <v>303.7099502530052</v>
+        <v>303.7099502530053</v>
       </c>
       <c r="N11" t="n">
-        <v>308.624294767076</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O11" t="n">
-        <v>291.4251699938979</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P11" t="n">
-        <v>248.7246402301935</v>
+        <v>248.7246402301936</v>
       </c>
       <c r="Q11" t="n">
         <v>186.7818464210729</v>
@@ -31788,10 +31788,10 @@
         <v>108.6496061881235</v>
       </c>
       <c r="S11" t="n">
-        <v>39.41421051100414</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T11" t="n">
-        <v>7.571506594050271</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U11" t="n">
         <v>0.1383713369558016</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9254399027651289</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H12" t="n">
-        <v>8.937801166179009</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I12" t="n">
-        <v>31.86273349432571</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J12" t="n">
-        <v>87.43377607659492</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K12" t="n">
         <v>149.4382495618586</v>
       </c>
       <c r="L12" t="n">
-        <v>200.9381683613496</v>
+        <v>200.9381683613497</v>
       </c>
       <c r="M12" t="n">
         <v>234.4853648365855</v>
       </c>
       <c r="N12" t="n">
-        <v>240.6914947108306</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O12" t="n">
-        <v>220.1856947600875</v>
+        <v>220.1856947600876</v>
       </c>
       <c r="P12" t="n">
-        <v>176.7184319587201</v>
+        <v>176.7184319587202</v>
       </c>
       <c r="Q12" t="n">
-        <v>118.1315917985803</v>
+        <v>118.1315917985804</v>
       </c>
       <c r="R12" t="n">
-        <v>57.45845291027706</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S12" t="n">
-        <v>17.18964029916806</v>
+        <v>17.18964029916807</v>
       </c>
       <c r="T12" t="n">
-        <v>3.73017223965418</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06088420412928482</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7758577269371154</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H13" t="n">
-        <v>6.898080517677267</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I13" t="n">
-        <v>23.33215782461799</v>
+        <v>23.332157824618</v>
       </c>
       <c r="J13" t="n">
-        <v>54.85314129445405</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K13" t="n">
-        <v>90.14056136596666</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L13" t="n">
         <v>115.3488842393599</v>
@@ -31931,19 +31931,19 @@
         <v>121.6192253234244</v>
       </c>
       <c r="N13" t="n">
-        <v>118.7273919775679</v>
+        <v>118.727391977568</v>
       </c>
       <c r="O13" t="n">
         <v>109.6639630765298</v>
       </c>
       <c r="P13" t="n">
-        <v>93.83646544701254</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.96750475288883</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R13" t="n">
-        <v>34.88538470391793</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S13" t="n">
         <v>13.521084204895</v>
@@ -31952,7 +31952,7 @@
         <v>3.315028469640402</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04231951237838816</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H14" t="n">
         <v>17.71369318248255</v>
@@ -32013,7 +32013,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O14" t="n">
-        <v>291.4251699938981</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P14" t="n">
         <v>248.7246402301936</v>
@@ -32028,7 +32028,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T14" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U14" t="n">
         <v>0.1383713369558016</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H15" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I15" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J15" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K15" t="n">
         <v>149.4382495618586</v>
@@ -32086,7 +32086,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M15" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N15" t="n">
         <v>240.6914947108307</v>
@@ -32101,7 +32101,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R15" t="n">
-        <v>57.45845291027709</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S15" t="n">
         <v>17.18964029916807</v>
@@ -32110,7 +32110,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H16" t="n">
-        <v>6.898080517677271</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I16" t="n">
         <v>23.332157824618</v>
@@ -32159,7 +32159,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K16" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L16" t="n">
         <v>115.3488842393599</v>
@@ -32174,10 +32174,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P16" t="n">
-        <v>93.83646544701259</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R16" t="n">
         <v>34.88538470391794</v>
@@ -32186,10 +32186,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T16" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.237198090825186</v>
+        <v>2.237198090825185</v>
       </c>
       <c r="H23" t="n">
-        <v>22.91170494766344</v>
+        <v>22.91170494766342</v>
       </c>
       <c r="I23" t="n">
-        <v>86.24957939653807</v>
+        <v>86.24957939653801</v>
       </c>
       <c r="J23" t="n">
-        <v>189.8793914611743</v>
+        <v>189.8793914611742</v>
       </c>
       <c r="K23" t="n">
-        <v>284.5799866458045</v>
+        <v>284.5799866458043</v>
       </c>
       <c r="L23" t="n">
-        <v>353.0466377178959</v>
+        <v>353.0466377178956</v>
       </c>
       <c r="M23" t="n">
-        <v>392.8324092656082</v>
+        <v>392.832409265608</v>
       </c>
       <c r="N23" t="n">
-        <v>399.1888483411653</v>
+        <v>399.1888483411651</v>
       </c>
       <c r="O23" t="n">
-        <v>376.9427098255224</v>
+        <v>376.9427098255221</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7118819582756</v>
+        <v>321.7118819582753</v>
       </c>
       <c r="Q23" t="n">
-        <v>241.5922253305985</v>
+        <v>241.5922253305983</v>
       </c>
       <c r="R23" t="n">
-        <v>140.5323945727977</v>
+        <v>140.5323945727976</v>
       </c>
       <c r="S23" t="n">
-        <v>50.98015149467898</v>
+        <v>50.98015149467894</v>
       </c>
       <c r="T23" t="n">
-        <v>9.793334642587258</v>
+        <v>9.793334642587249</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1789758472660149</v>
+        <v>0.1789758472660147</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.197006506803307</v>
+        <v>1.197006506803306</v>
       </c>
       <c r="H24" t="n">
-        <v>11.56056284202141</v>
+        <v>11.5605628420214</v>
       </c>
       <c r="I24" t="n">
-        <v>41.21272402809632</v>
+        <v>41.21272402809628</v>
       </c>
       <c r="J24" t="n">
-        <v>113.0908647502195</v>
+        <v>113.0908647502194</v>
       </c>
       <c r="K24" t="n">
-        <v>193.290300706041</v>
+        <v>193.2903007060409</v>
       </c>
       <c r="L24" t="n">
-        <v>259.9026628039373</v>
+        <v>259.9026628039371</v>
       </c>
       <c r="M24" t="n">
-        <v>303.2941486755572</v>
+        <v>303.2941486755569</v>
       </c>
       <c r="N24" t="n">
-        <v>311.3214423110934</v>
+        <v>311.3214423110932</v>
       </c>
       <c r="O24" t="n">
-        <v>284.7982981340306</v>
+        <v>284.7982981340304</v>
       </c>
       <c r="P24" t="n">
-        <v>228.5757425140455</v>
+        <v>228.5757425140453</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.7968305877344</v>
+        <v>152.7968305877343</v>
       </c>
       <c r="R24" t="n">
-        <v>74.31940399257728</v>
+        <v>74.31940399257722</v>
       </c>
       <c r="S24" t="n">
-        <v>22.23387086101755</v>
+        <v>22.23387086101753</v>
       </c>
       <c r="T24" t="n">
-        <v>4.824776226983503</v>
+        <v>4.824776226983499</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07875042807916496</v>
+        <v>0.07875042807916489</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.003530045249249</v>
+        <v>1.003530045249248</v>
       </c>
       <c r="H25" t="n">
-        <v>8.922294402306967</v>
+        <v>8.92229440230696</v>
       </c>
       <c r="I25" t="n">
-        <v>30.17888536076834</v>
+        <v>30.17888536076831</v>
       </c>
       <c r="J25" t="n">
-        <v>70.94957419912191</v>
+        <v>70.94957419912186</v>
       </c>
       <c r="K25" t="n">
-        <v>116.59194525714</v>
+        <v>116.5919452571399</v>
       </c>
       <c r="L25" t="n">
-        <v>149.1975487273293</v>
+        <v>149.1975487273292</v>
       </c>
       <c r="M25" t="n">
-        <v>157.3078960930254</v>
+        <v>157.3078960930253</v>
       </c>
       <c r="N25" t="n">
-        <v>153.5674659243693</v>
+        <v>153.5674659243692</v>
       </c>
       <c r="O25" t="n">
-        <v>141.8444103957757</v>
+        <v>141.8444103957756</v>
       </c>
       <c r="P25" t="n">
-        <v>121.3723974726909</v>
+        <v>121.3723974726908</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.03195678900758</v>
+        <v>84.03195678900752</v>
       </c>
       <c r="R25" t="n">
-        <v>45.12236003457078</v>
+        <v>45.12236003457073</v>
       </c>
       <c r="S25" t="n">
-        <v>17.488791788571</v>
+        <v>17.48879178857099</v>
       </c>
       <c r="T25" t="n">
-        <v>4.2878101933377</v>
+        <v>4.287810193337696</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05473800246814092</v>
+        <v>0.05473800246814088</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.237198090825186</v>
+        <v>2.237198090825185</v>
       </c>
       <c r="H26" t="n">
-        <v>22.91170494766344</v>
+        <v>22.91170494766342</v>
       </c>
       <c r="I26" t="n">
-        <v>86.24957939653807</v>
+        <v>86.24957939653801</v>
       </c>
       <c r="J26" t="n">
-        <v>189.8793914611743</v>
+        <v>189.8793914611742</v>
       </c>
       <c r="K26" t="n">
-        <v>284.5799866458045</v>
+        <v>284.5799866458043</v>
       </c>
       <c r="L26" t="n">
-        <v>353.0466377178959</v>
+        <v>353.0466377178956</v>
       </c>
       <c r="M26" t="n">
-        <v>392.8324092656082</v>
+        <v>392.832409265608</v>
       </c>
       <c r="N26" t="n">
-        <v>399.1888483411653</v>
+        <v>399.1888483411651</v>
       </c>
       <c r="O26" t="n">
-        <v>376.9427098255224</v>
+        <v>376.9427098255221</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7118819582756</v>
+        <v>321.7118819582753</v>
       </c>
       <c r="Q26" t="n">
-        <v>241.5922253305985</v>
+        <v>241.5922253305983</v>
       </c>
       <c r="R26" t="n">
-        <v>140.5323945727977</v>
+        <v>140.5323945727976</v>
       </c>
       <c r="S26" t="n">
-        <v>50.98015149467898</v>
+        <v>50.98015149467894</v>
       </c>
       <c r="T26" t="n">
-        <v>9.793334642587258</v>
+        <v>9.793334642587249</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1789758472660149</v>
+        <v>0.1789758472660147</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.197006506803307</v>
+        <v>1.197006506803306</v>
       </c>
       <c r="H27" t="n">
-        <v>11.56056284202141</v>
+        <v>11.5605628420214</v>
       </c>
       <c r="I27" t="n">
-        <v>41.21272402809632</v>
+        <v>41.21272402809628</v>
       </c>
       <c r="J27" t="n">
-        <v>113.0908647502195</v>
+        <v>113.0908647502194</v>
       </c>
       <c r="K27" t="n">
-        <v>193.290300706041</v>
+        <v>193.2903007060409</v>
       </c>
       <c r="L27" t="n">
-        <v>259.9026628039373</v>
+        <v>259.9026628039371</v>
       </c>
       <c r="M27" t="n">
-        <v>303.2941486755572</v>
+        <v>303.2941486755569</v>
       </c>
       <c r="N27" t="n">
-        <v>311.3214423110934</v>
+        <v>311.3214423110932</v>
       </c>
       <c r="O27" t="n">
-        <v>284.7982981340306</v>
+        <v>284.7982981340304</v>
       </c>
       <c r="P27" t="n">
-        <v>228.5757425140455</v>
+        <v>228.5757425140453</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.7968305877344</v>
+        <v>152.7968305877343</v>
       </c>
       <c r="R27" t="n">
-        <v>74.31940399257728</v>
+        <v>74.31940399257722</v>
       </c>
       <c r="S27" t="n">
-        <v>22.23387086101755</v>
+        <v>22.23387086101753</v>
       </c>
       <c r="T27" t="n">
-        <v>4.824776226983503</v>
+        <v>4.824776226983499</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07875042807916496</v>
+        <v>0.07875042807916489</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.003530045249249</v>
+        <v>1.003530045249248</v>
       </c>
       <c r="H28" t="n">
-        <v>8.922294402306967</v>
+        <v>8.92229440230696</v>
       </c>
       <c r="I28" t="n">
-        <v>30.17888536076834</v>
+        <v>30.17888536076831</v>
       </c>
       <c r="J28" t="n">
-        <v>70.94957419912191</v>
+        <v>70.94957419912186</v>
       </c>
       <c r="K28" t="n">
-        <v>116.59194525714</v>
+        <v>116.5919452571399</v>
       </c>
       <c r="L28" t="n">
-        <v>149.1975487273293</v>
+        <v>149.1975487273292</v>
       </c>
       <c r="M28" t="n">
-        <v>157.3078960930254</v>
+        <v>157.3078960930253</v>
       </c>
       <c r="N28" t="n">
-        <v>153.5674659243693</v>
+        <v>153.5674659243692</v>
       </c>
       <c r="O28" t="n">
-        <v>141.8444103957757</v>
+        <v>141.8444103957756</v>
       </c>
       <c r="P28" t="n">
-        <v>121.3723974726909</v>
+        <v>121.3723974726908</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.03195678900758</v>
+        <v>84.03195678900752</v>
       </c>
       <c r="R28" t="n">
-        <v>45.12236003457078</v>
+        <v>45.12236003457073</v>
       </c>
       <c r="S28" t="n">
-        <v>17.488791788571</v>
+        <v>17.48879178857099</v>
       </c>
       <c r="T28" t="n">
-        <v>4.2878101933377</v>
+        <v>4.287810193337696</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05473800246814092</v>
+        <v>0.05473800246814088</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.237198090825186</v>
+        <v>2.237198090825185</v>
       </c>
       <c r="H29" t="n">
-        <v>22.91170494766344</v>
+        <v>22.91170494766342</v>
       </c>
       <c r="I29" t="n">
-        <v>86.24957939653807</v>
+        <v>86.24957939653801</v>
       </c>
       <c r="J29" t="n">
-        <v>189.8793914611743</v>
+        <v>189.8793914611742</v>
       </c>
       <c r="K29" t="n">
-        <v>284.5799866458045</v>
+        <v>284.5799866458043</v>
       </c>
       <c r="L29" t="n">
-        <v>353.0466377178959</v>
+        <v>353.0466377178956</v>
       </c>
       <c r="M29" t="n">
-        <v>392.8324092656082</v>
+        <v>392.832409265608</v>
       </c>
       <c r="N29" t="n">
-        <v>399.1888483411653</v>
+        <v>399.1888483411651</v>
       </c>
       <c r="O29" t="n">
-        <v>376.9427098255224</v>
+        <v>376.9427098255221</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7118819582756</v>
+        <v>321.7118819582753</v>
       </c>
       <c r="Q29" t="n">
-        <v>241.5922253305985</v>
+        <v>241.5922253305983</v>
       </c>
       <c r="R29" t="n">
-        <v>140.5323945727977</v>
+        <v>140.5323945727976</v>
       </c>
       <c r="S29" t="n">
-        <v>50.98015149467898</v>
+        <v>50.98015149467894</v>
       </c>
       <c r="T29" t="n">
-        <v>9.793334642587258</v>
+        <v>9.793334642587249</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1789758472660149</v>
+        <v>0.1789758472660147</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.197006506803307</v>
+        <v>1.197006506803306</v>
       </c>
       <c r="H30" t="n">
-        <v>11.56056284202141</v>
+        <v>11.5605628420214</v>
       </c>
       <c r="I30" t="n">
-        <v>41.21272402809632</v>
+        <v>41.21272402809628</v>
       </c>
       <c r="J30" t="n">
-        <v>113.0908647502195</v>
+        <v>113.0908647502194</v>
       </c>
       <c r="K30" t="n">
-        <v>193.290300706041</v>
+        <v>193.2903007060409</v>
       </c>
       <c r="L30" t="n">
-        <v>259.9026628039373</v>
+        <v>259.9026628039371</v>
       </c>
       <c r="M30" t="n">
-        <v>303.2941486755572</v>
+        <v>303.2941486755569</v>
       </c>
       <c r="N30" t="n">
-        <v>311.3214423110934</v>
+        <v>311.3214423110932</v>
       </c>
       <c r="O30" t="n">
-        <v>284.7982981340306</v>
+        <v>284.7982981340304</v>
       </c>
       <c r="P30" t="n">
-        <v>228.5757425140455</v>
+        <v>228.5757425140453</v>
       </c>
       <c r="Q30" t="n">
-        <v>152.7968305877344</v>
+        <v>152.7968305877343</v>
       </c>
       <c r="R30" t="n">
-        <v>74.31940399257728</v>
+        <v>74.31940399257722</v>
       </c>
       <c r="S30" t="n">
-        <v>22.23387086101755</v>
+        <v>22.23387086101753</v>
       </c>
       <c r="T30" t="n">
-        <v>4.824776226983503</v>
+        <v>4.824776226983499</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07875042807916496</v>
+        <v>0.07875042807916489</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.003530045249249</v>
+        <v>1.003530045249248</v>
       </c>
       <c r="H31" t="n">
-        <v>8.922294402306967</v>
+        <v>8.92229440230696</v>
       </c>
       <c r="I31" t="n">
-        <v>30.17888536076834</v>
+        <v>30.17888536076831</v>
       </c>
       <c r="J31" t="n">
-        <v>70.94957419912191</v>
+        <v>70.94957419912186</v>
       </c>
       <c r="K31" t="n">
-        <v>116.59194525714</v>
+        <v>116.5919452571399</v>
       </c>
       <c r="L31" t="n">
-        <v>149.1975487273293</v>
+        <v>149.1975487273292</v>
       </c>
       <c r="M31" t="n">
-        <v>157.3078960930254</v>
+        <v>157.3078960930253</v>
       </c>
       <c r="N31" t="n">
-        <v>153.5674659243693</v>
+        <v>153.5674659243692</v>
       </c>
       <c r="O31" t="n">
-        <v>141.8444103957757</v>
+        <v>141.8444103957756</v>
       </c>
       <c r="P31" t="n">
-        <v>121.3723974726909</v>
+        <v>121.3723974726908</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.03195678900758</v>
+        <v>84.03195678900752</v>
       </c>
       <c r="R31" t="n">
-        <v>45.12236003457078</v>
+        <v>45.12236003457073</v>
       </c>
       <c r="S31" t="n">
-        <v>17.488791788571</v>
+        <v>17.48879178857099</v>
       </c>
       <c r="T31" t="n">
-        <v>4.2878101933377</v>
+        <v>4.287810193337696</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05473800246814092</v>
+        <v>0.05473800246814088</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.237198090825186</v>
+        <v>2.237198090825185</v>
       </c>
       <c r="H32" t="n">
-        <v>22.91170494766344</v>
+        <v>22.91170494766342</v>
       </c>
       <c r="I32" t="n">
-        <v>86.24957939653807</v>
+        <v>86.24957939653801</v>
       </c>
       <c r="J32" t="n">
-        <v>189.8793914611743</v>
+        <v>189.8793914611742</v>
       </c>
       <c r="K32" t="n">
-        <v>284.5799866458045</v>
+        <v>284.5799866458043</v>
       </c>
       <c r="L32" t="n">
-        <v>353.0466377178959</v>
+        <v>353.0466377178956</v>
       </c>
       <c r="M32" t="n">
-        <v>392.8324092656082</v>
+        <v>392.832409265608</v>
       </c>
       <c r="N32" t="n">
-        <v>399.1888483411653</v>
+        <v>399.1888483411651</v>
       </c>
       <c r="O32" t="n">
-        <v>376.9427098255224</v>
+        <v>376.9427098255221</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7118819582756</v>
+        <v>321.7118819582753</v>
       </c>
       <c r="Q32" t="n">
-        <v>241.5922253305985</v>
+        <v>241.5922253305983</v>
       </c>
       <c r="R32" t="n">
-        <v>140.5323945727977</v>
+        <v>140.5323945727976</v>
       </c>
       <c r="S32" t="n">
-        <v>50.98015149467898</v>
+        <v>50.98015149467894</v>
       </c>
       <c r="T32" t="n">
-        <v>9.793334642587258</v>
+        <v>9.793334642587249</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1789758472660149</v>
+        <v>0.1789758472660147</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.197006506803307</v>
+        <v>1.197006506803306</v>
       </c>
       <c r="H33" t="n">
-        <v>11.56056284202141</v>
+        <v>11.5605628420214</v>
       </c>
       <c r="I33" t="n">
-        <v>41.21272402809632</v>
+        <v>41.21272402809628</v>
       </c>
       <c r="J33" t="n">
-        <v>113.0908647502195</v>
+        <v>113.0908647502194</v>
       </c>
       <c r="K33" t="n">
-        <v>193.290300706041</v>
+        <v>193.2903007060409</v>
       </c>
       <c r="L33" t="n">
-        <v>259.9026628039373</v>
+        <v>259.9026628039371</v>
       </c>
       <c r="M33" t="n">
-        <v>303.2941486755572</v>
+        <v>303.2941486755569</v>
       </c>
       <c r="N33" t="n">
-        <v>311.3214423110934</v>
+        <v>311.3214423110932</v>
       </c>
       <c r="O33" t="n">
-        <v>284.7982981340306</v>
+        <v>284.7982981340304</v>
       </c>
       <c r="P33" t="n">
-        <v>228.5757425140455</v>
+        <v>228.5757425140453</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.7968305877344</v>
+        <v>152.7968305877343</v>
       </c>
       <c r="R33" t="n">
-        <v>74.31940399257728</v>
+        <v>74.31940399257722</v>
       </c>
       <c r="S33" t="n">
-        <v>22.23387086101755</v>
+        <v>22.23387086101753</v>
       </c>
       <c r="T33" t="n">
-        <v>4.824776226983503</v>
+        <v>4.824776226983499</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07875042807916496</v>
+        <v>0.07875042807916489</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.003530045249249</v>
+        <v>1.003530045249248</v>
       </c>
       <c r="H34" t="n">
-        <v>8.922294402306967</v>
+        <v>8.92229440230696</v>
       </c>
       <c r="I34" t="n">
-        <v>30.17888536076834</v>
+        <v>30.17888536076831</v>
       </c>
       <c r="J34" t="n">
-        <v>70.94957419912191</v>
+        <v>70.94957419912186</v>
       </c>
       <c r="K34" t="n">
-        <v>116.59194525714</v>
+        <v>116.5919452571399</v>
       </c>
       <c r="L34" t="n">
-        <v>149.1975487273293</v>
+        <v>149.1975487273292</v>
       </c>
       <c r="M34" t="n">
-        <v>157.3078960930254</v>
+        <v>157.3078960930253</v>
       </c>
       <c r="N34" t="n">
-        <v>153.5674659243693</v>
+        <v>153.5674659243692</v>
       </c>
       <c r="O34" t="n">
-        <v>141.8444103957757</v>
+        <v>141.8444103957756</v>
       </c>
       <c r="P34" t="n">
-        <v>121.3723974726909</v>
+        <v>121.3723974726908</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.03195678900758</v>
+        <v>84.03195678900752</v>
       </c>
       <c r="R34" t="n">
-        <v>45.12236003457078</v>
+        <v>45.12236003457073</v>
       </c>
       <c r="S34" t="n">
-        <v>17.488791788571</v>
+        <v>17.48879178857099</v>
       </c>
       <c r="T34" t="n">
-        <v>4.2878101933377</v>
+        <v>4.287810193337696</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05473800246814092</v>
+        <v>0.05473800246814088</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.237198090825186</v>
+        <v>2.237198090825185</v>
       </c>
       <c r="H35" t="n">
-        <v>22.91170494766344</v>
+        <v>22.91170494766342</v>
       </c>
       <c r="I35" t="n">
-        <v>86.24957939653807</v>
+        <v>86.24957939653801</v>
       </c>
       <c r="J35" t="n">
-        <v>189.8793914611743</v>
+        <v>189.8793914611742</v>
       </c>
       <c r="K35" t="n">
-        <v>284.5799866458045</v>
+        <v>284.5799866458043</v>
       </c>
       <c r="L35" t="n">
-        <v>353.0466377178959</v>
+        <v>353.0466377178956</v>
       </c>
       <c r="M35" t="n">
-        <v>392.8324092656082</v>
+        <v>392.832409265608</v>
       </c>
       <c r="N35" t="n">
-        <v>399.1888483411653</v>
+        <v>399.1888483411651</v>
       </c>
       <c r="O35" t="n">
-        <v>376.9427098255224</v>
+        <v>376.9427098255221</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7118819582756</v>
+        <v>321.7118819582753</v>
       </c>
       <c r="Q35" t="n">
-        <v>241.5922253305985</v>
+        <v>241.5922253305983</v>
       </c>
       <c r="R35" t="n">
-        <v>140.5323945727977</v>
+        <v>140.5323945727976</v>
       </c>
       <c r="S35" t="n">
-        <v>50.98015149467898</v>
+        <v>50.98015149467894</v>
       </c>
       <c r="T35" t="n">
-        <v>9.793334642587258</v>
+        <v>9.793334642587249</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1789758472660149</v>
+        <v>0.1789758472660147</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.197006506803307</v>
+        <v>1.197006506803306</v>
       </c>
       <c r="H36" t="n">
-        <v>11.56056284202141</v>
+        <v>11.5605628420214</v>
       </c>
       <c r="I36" t="n">
-        <v>41.21272402809632</v>
+        <v>41.21272402809628</v>
       </c>
       <c r="J36" t="n">
-        <v>113.0908647502195</v>
+        <v>113.0908647502194</v>
       </c>
       <c r="K36" t="n">
-        <v>193.290300706041</v>
+        <v>193.2903007060409</v>
       </c>
       <c r="L36" t="n">
-        <v>259.9026628039373</v>
+        <v>259.9026628039371</v>
       </c>
       <c r="M36" t="n">
-        <v>303.2941486755572</v>
+        <v>303.2941486755569</v>
       </c>
       <c r="N36" t="n">
-        <v>311.3214423110934</v>
+        <v>311.3214423110932</v>
       </c>
       <c r="O36" t="n">
-        <v>284.7982981340306</v>
+        <v>284.7982981340304</v>
       </c>
       <c r="P36" t="n">
-        <v>228.5757425140455</v>
+        <v>228.5757425140453</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.7968305877344</v>
+        <v>152.7968305877343</v>
       </c>
       <c r="R36" t="n">
-        <v>74.31940399257728</v>
+        <v>74.31940399257722</v>
       </c>
       <c r="S36" t="n">
-        <v>22.23387086101755</v>
+        <v>22.23387086101753</v>
       </c>
       <c r="T36" t="n">
-        <v>4.824776226983503</v>
+        <v>4.824776226983499</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07875042807916496</v>
+        <v>0.07875042807916489</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.003530045249249</v>
+        <v>1.003530045249248</v>
       </c>
       <c r="H37" t="n">
-        <v>8.922294402306967</v>
+        <v>8.92229440230696</v>
       </c>
       <c r="I37" t="n">
-        <v>30.17888536076834</v>
+        <v>30.17888536076831</v>
       </c>
       <c r="J37" t="n">
-        <v>70.94957419912191</v>
+        <v>70.94957419912186</v>
       </c>
       <c r="K37" t="n">
-        <v>116.59194525714</v>
+        <v>116.5919452571399</v>
       </c>
       <c r="L37" t="n">
-        <v>149.1975487273293</v>
+        <v>149.1975487273292</v>
       </c>
       <c r="M37" t="n">
-        <v>157.3078960930254</v>
+        <v>157.3078960930253</v>
       </c>
       <c r="N37" t="n">
-        <v>153.5674659243693</v>
+        <v>153.5674659243692</v>
       </c>
       <c r="O37" t="n">
-        <v>141.8444103957757</v>
+        <v>141.8444103957756</v>
       </c>
       <c r="P37" t="n">
-        <v>121.3723974726909</v>
+        <v>121.3723974726908</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.03195678900758</v>
+        <v>84.03195678900752</v>
       </c>
       <c r="R37" t="n">
-        <v>45.12236003457078</v>
+        <v>45.12236003457073</v>
       </c>
       <c r="S37" t="n">
-        <v>17.488791788571</v>
+        <v>17.48879178857099</v>
       </c>
       <c r="T37" t="n">
-        <v>4.2878101933377</v>
+        <v>4.287810193337696</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05473800246814092</v>
+        <v>0.05473800246814088</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.237198090825186</v>
+        <v>2.237198090825185</v>
       </c>
       <c r="H38" t="n">
-        <v>22.91170494766344</v>
+        <v>22.91170494766342</v>
       </c>
       <c r="I38" t="n">
-        <v>86.24957939653807</v>
+        <v>86.24957939653801</v>
       </c>
       <c r="J38" t="n">
-        <v>189.8793914611743</v>
+        <v>189.8793914611742</v>
       </c>
       <c r="K38" t="n">
-        <v>284.5799866458045</v>
+        <v>284.5799866458043</v>
       </c>
       <c r="L38" t="n">
-        <v>353.0466377178959</v>
+        <v>353.0466377178956</v>
       </c>
       <c r="M38" t="n">
-        <v>392.8324092656082</v>
+        <v>392.832409265608</v>
       </c>
       <c r="N38" t="n">
-        <v>399.1888483411653</v>
+        <v>399.1888483411651</v>
       </c>
       <c r="O38" t="n">
-        <v>376.9427098255224</v>
+        <v>376.9427098255221</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7118819582756</v>
+        <v>321.7118819582753</v>
       </c>
       <c r="Q38" t="n">
-        <v>241.5922253305985</v>
+        <v>241.5922253305983</v>
       </c>
       <c r="R38" t="n">
-        <v>140.5323945727977</v>
+        <v>140.5323945727976</v>
       </c>
       <c r="S38" t="n">
-        <v>50.98015149467898</v>
+        <v>50.98015149467894</v>
       </c>
       <c r="T38" t="n">
-        <v>9.793334642587258</v>
+        <v>9.793334642587249</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1789758472660149</v>
+        <v>0.1789758472660147</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.197006506803307</v>
+        <v>1.197006506803306</v>
       </c>
       <c r="H39" t="n">
-        <v>11.56056284202141</v>
+        <v>11.5605628420214</v>
       </c>
       <c r="I39" t="n">
-        <v>41.21272402809632</v>
+        <v>41.21272402809628</v>
       </c>
       <c r="J39" t="n">
-        <v>113.0908647502195</v>
+        <v>113.0908647502194</v>
       </c>
       <c r="K39" t="n">
-        <v>193.290300706041</v>
+        <v>193.2903007060409</v>
       </c>
       <c r="L39" t="n">
-        <v>259.9026628039373</v>
+        <v>259.9026628039371</v>
       </c>
       <c r="M39" t="n">
-        <v>303.2941486755572</v>
+        <v>303.2941486755569</v>
       </c>
       <c r="N39" t="n">
-        <v>311.3214423110934</v>
+        <v>311.3214423110932</v>
       </c>
       <c r="O39" t="n">
-        <v>284.7982981340306</v>
+        <v>284.7982981340304</v>
       </c>
       <c r="P39" t="n">
-        <v>228.5757425140455</v>
+        <v>228.5757425140453</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.7968305877344</v>
+        <v>152.7968305877343</v>
       </c>
       <c r="R39" t="n">
-        <v>74.31940399257728</v>
+        <v>74.31940399257722</v>
       </c>
       <c r="S39" t="n">
-        <v>22.23387086101755</v>
+        <v>22.23387086101753</v>
       </c>
       <c r="T39" t="n">
-        <v>4.824776226983503</v>
+        <v>4.824776226983499</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07875042807916496</v>
+        <v>0.07875042807916489</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.003530045249249</v>
+        <v>1.003530045249248</v>
       </c>
       <c r="H40" t="n">
-        <v>8.922294402306967</v>
+        <v>8.92229440230696</v>
       </c>
       <c r="I40" t="n">
-        <v>30.17888536076834</v>
+        <v>30.17888536076831</v>
       </c>
       <c r="J40" t="n">
-        <v>70.94957419912191</v>
+        <v>70.94957419912186</v>
       </c>
       <c r="K40" t="n">
-        <v>116.59194525714</v>
+        <v>116.5919452571399</v>
       </c>
       <c r="L40" t="n">
-        <v>149.1975487273293</v>
+        <v>149.1975487273292</v>
       </c>
       <c r="M40" t="n">
-        <v>157.3078960930254</v>
+        <v>157.3078960930253</v>
       </c>
       <c r="N40" t="n">
-        <v>153.5674659243693</v>
+        <v>153.5674659243692</v>
       </c>
       <c r="O40" t="n">
-        <v>141.8444103957757</v>
+        <v>141.8444103957756</v>
       </c>
       <c r="P40" t="n">
-        <v>121.3723974726909</v>
+        <v>121.3723974726908</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.03195678900758</v>
+        <v>84.03195678900752</v>
       </c>
       <c r="R40" t="n">
-        <v>45.12236003457078</v>
+        <v>45.12236003457073</v>
       </c>
       <c r="S40" t="n">
-        <v>17.488791788571</v>
+        <v>17.48879178857099</v>
       </c>
       <c r="T40" t="n">
-        <v>4.2878101933377</v>
+        <v>4.287810193337696</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05473800246814092</v>
+        <v>0.05473800246814088</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.237198090825186</v>
+        <v>2.237198090825185</v>
       </c>
       <c r="H41" t="n">
-        <v>22.91170494766344</v>
+        <v>22.91170494766342</v>
       </c>
       <c r="I41" t="n">
-        <v>86.24957939653807</v>
+        <v>86.24957939653801</v>
       </c>
       <c r="J41" t="n">
-        <v>189.8793914611743</v>
+        <v>189.8793914611742</v>
       </c>
       <c r="K41" t="n">
-        <v>284.5799866458045</v>
+        <v>284.5799866458043</v>
       </c>
       <c r="L41" t="n">
-        <v>353.0466377178959</v>
+        <v>353.0466377178956</v>
       </c>
       <c r="M41" t="n">
-        <v>392.8324092656082</v>
+        <v>392.832409265608</v>
       </c>
       <c r="N41" t="n">
-        <v>399.1888483411653</v>
+        <v>399.1888483411651</v>
       </c>
       <c r="O41" t="n">
-        <v>376.9427098255224</v>
+        <v>376.9427098255221</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7118819582756</v>
+        <v>321.7118819582753</v>
       </c>
       <c r="Q41" t="n">
-        <v>241.5922253305985</v>
+        <v>241.5922253305983</v>
       </c>
       <c r="R41" t="n">
-        <v>140.5323945727977</v>
+        <v>140.5323945727976</v>
       </c>
       <c r="S41" t="n">
-        <v>50.98015149467898</v>
+        <v>50.98015149467894</v>
       </c>
       <c r="T41" t="n">
-        <v>9.793334642587258</v>
+        <v>9.793334642587249</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1789758472660149</v>
+        <v>0.1789758472660147</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.197006506803307</v>
+        <v>1.197006506803306</v>
       </c>
       <c r="H42" t="n">
-        <v>11.56056284202141</v>
+        <v>11.5605628420214</v>
       </c>
       <c r="I42" t="n">
-        <v>41.21272402809632</v>
+        <v>41.21272402809628</v>
       </c>
       <c r="J42" t="n">
-        <v>113.0908647502195</v>
+        <v>113.0908647502194</v>
       </c>
       <c r="K42" t="n">
-        <v>193.290300706041</v>
+        <v>193.2903007060409</v>
       </c>
       <c r="L42" t="n">
-        <v>259.9026628039373</v>
+        <v>259.9026628039371</v>
       </c>
       <c r="M42" t="n">
-        <v>303.2941486755572</v>
+        <v>303.2941486755569</v>
       </c>
       <c r="N42" t="n">
-        <v>311.3214423110934</v>
+        <v>311.3214423110932</v>
       </c>
       <c r="O42" t="n">
-        <v>284.7982981340306</v>
+        <v>284.7982981340304</v>
       </c>
       <c r="P42" t="n">
-        <v>228.5757425140455</v>
+        <v>228.5757425140453</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.7968305877344</v>
+        <v>152.7968305877343</v>
       </c>
       <c r="R42" t="n">
-        <v>74.31940399257728</v>
+        <v>74.31940399257722</v>
       </c>
       <c r="S42" t="n">
-        <v>22.23387086101755</v>
+        <v>22.23387086101753</v>
       </c>
       <c r="T42" t="n">
-        <v>4.824776226983503</v>
+        <v>4.824776226983499</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07875042807916496</v>
+        <v>0.07875042807916489</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.003530045249249</v>
+        <v>1.003530045249248</v>
       </c>
       <c r="H43" t="n">
-        <v>8.922294402306967</v>
+        <v>8.92229440230696</v>
       </c>
       <c r="I43" t="n">
-        <v>30.17888536076834</v>
+        <v>30.17888536076831</v>
       </c>
       <c r="J43" t="n">
-        <v>70.94957419912191</v>
+        <v>70.94957419912186</v>
       </c>
       <c r="K43" t="n">
-        <v>116.59194525714</v>
+        <v>116.5919452571399</v>
       </c>
       <c r="L43" t="n">
-        <v>149.1975487273293</v>
+        <v>149.1975487273292</v>
       </c>
       <c r="M43" t="n">
-        <v>157.3078960930254</v>
+        <v>157.3078960930253</v>
       </c>
       <c r="N43" t="n">
-        <v>153.5674659243693</v>
+        <v>153.5674659243692</v>
       </c>
       <c r="O43" t="n">
-        <v>141.8444103957757</v>
+        <v>141.8444103957756</v>
       </c>
       <c r="P43" t="n">
-        <v>121.3723974726909</v>
+        <v>121.3723974726908</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.03195678900758</v>
+        <v>84.03195678900752</v>
       </c>
       <c r="R43" t="n">
-        <v>45.12236003457078</v>
+        <v>45.12236003457073</v>
       </c>
       <c r="S43" t="n">
-        <v>17.488791788571</v>
+        <v>17.48879178857099</v>
       </c>
       <c r="T43" t="n">
-        <v>4.2878101933377</v>
+        <v>4.287810193337696</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05473800246814092</v>
+        <v>0.05473800246814088</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.237198090825186</v>
+        <v>2.237198090825184</v>
       </c>
       <c r="H44" t="n">
-        <v>22.91170494766344</v>
+        <v>22.91170494766342</v>
       </c>
       <c r="I44" t="n">
-        <v>86.24957939653834</v>
+        <v>86.24957939653798</v>
       </c>
       <c r="J44" t="n">
-        <v>189.8793914611743</v>
+        <v>189.8793914611741</v>
       </c>
       <c r="K44" t="n">
-        <v>284.5799866458045</v>
+        <v>284.5799866458042</v>
       </c>
       <c r="L44" t="n">
-        <v>353.0466377178959</v>
+        <v>353.0466377178955</v>
       </c>
       <c r="M44" t="n">
-        <v>392.8324092656082</v>
+        <v>392.8324092656079</v>
       </c>
       <c r="N44" t="n">
-        <v>399.1888483411653</v>
+        <v>399.1888483411649</v>
       </c>
       <c r="O44" t="n">
-        <v>376.9427098255224</v>
+        <v>376.942709825522</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7118819582756</v>
+        <v>321.7118819582752</v>
       </c>
       <c r="Q44" t="n">
-        <v>241.5922253305985</v>
+        <v>241.5922253305982</v>
       </c>
       <c r="R44" t="n">
-        <v>140.5323945727977</v>
+        <v>140.5323945727976</v>
       </c>
       <c r="S44" t="n">
-        <v>50.98015149467898</v>
+        <v>50.98015149467893</v>
       </c>
       <c r="T44" t="n">
-        <v>9.793334642587258</v>
+        <v>9.793334642587247</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1789758472660149</v>
+        <v>0.1789758472660147</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.197006506803307</v>
+        <v>1.197006506803306</v>
       </c>
       <c r="H45" t="n">
-        <v>11.56056284202141</v>
+        <v>11.5605628420214</v>
       </c>
       <c r="I45" t="n">
-        <v>41.21272402809632</v>
+        <v>41.21272402809628</v>
       </c>
       <c r="J45" t="n">
-        <v>113.0908647502195</v>
+        <v>113.0908647502194</v>
       </c>
       <c r="K45" t="n">
-        <v>193.290300706041</v>
+        <v>193.2903007060408</v>
       </c>
       <c r="L45" t="n">
-        <v>259.9026628039373</v>
+        <v>259.9026628039371</v>
       </c>
       <c r="M45" t="n">
-        <v>303.2941486755572</v>
+        <v>303.2941486755568</v>
       </c>
       <c r="N45" t="n">
-        <v>311.3214423110934</v>
+        <v>311.3214423110931</v>
       </c>
       <c r="O45" t="n">
-        <v>284.7982981340306</v>
+        <v>284.7982981340303</v>
       </c>
       <c r="P45" t="n">
-        <v>228.5757425140455</v>
+        <v>228.5757425140453</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.7968305877344</v>
+        <v>152.7968305877343</v>
       </c>
       <c r="R45" t="n">
-        <v>74.31940399257728</v>
+        <v>74.31940399257721</v>
       </c>
       <c r="S45" t="n">
-        <v>22.23387086101755</v>
+        <v>22.23387086101753</v>
       </c>
       <c r="T45" t="n">
-        <v>4.824776226983503</v>
+        <v>4.824776226983498</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07875042807916496</v>
+        <v>0.07875042807916488</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.003530045249249</v>
+        <v>1.003530045249248</v>
       </c>
       <c r="H46" t="n">
-        <v>8.922294402306967</v>
+        <v>8.922294402306958</v>
       </c>
       <c r="I46" t="n">
-        <v>30.17888536076834</v>
+        <v>30.17888536076831</v>
       </c>
       <c r="J46" t="n">
-        <v>70.94957419912191</v>
+        <v>70.94957419912184</v>
       </c>
       <c r="K46" t="n">
-        <v>116.59194525714</v>
+        <v>116.5919452571399</v>
       </c>
       <c r="L46" t="n">
-        <v>149.1975487273293</v>
+        <v>149.1975487273291</v>
       </c>
       <c r="M46" t="n">
-        <v>157.3078960930254</v>
+        <v>157.3078960930253</v>
       </c>
       <c r="N46" t="n">
-        <v>153.5674659243693</v>
+        <v>153.5674659243691</v>
       </c>
       <c r="O46" t="n">
-        <v>141.8444103957757</v>
+        <v>141.8444103957756</v>
       </c>
       <c r="P46" t="n">
-        <v>121.3723974726909</v>
+        <v>121.3723974726908</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.03195678900758</v>
+        <v>84.03195678900749</v>
       </c>
       <c r="R46" t="n">
-        <v>45.12236003457078</v>
+        <v>45.12236003457073</v>
       </c>
       <c r="S46" t="n">
-        <v>17.488791788571</v>
+        <v>17.48879178857098</v>
       </c>
       <c r="T46" t="n">
-        <v>4.2878101933377</v>
+        <v>4.287810193337696</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05473800246814092</v>
+        <v>0.05473800246814087</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>32.13410955589332</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J11" t="n">
-        <v>117.3812187638194</v>
+        <v>117.3812187638195</v>
       </c>
       <c r="K11" t="n">
-        <v>184.2523111213351</v>
+        <v>184.2523111213353</v>
       </c>
       <c r="L11" t="n">
-        <v>234.6383920255355</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M11" t="n">
-        <v>266.2786873535733</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N11" t="n">
-        <v>271.34467193263</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O11" t="n">
-        <v>254.0342106378738</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P11" t="n">
-        <v>211.1492784199622</v>
+        <v>211.1492784199623</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.6571718164748</v>
+        <v>150.6571718164749</v>
       </c>
       <c r="R11" t="n">
-        <v>73.61695629332701</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>15.69034674432571</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J12" t="n">
         <v>361.8756844398183</v>
       </c>
       <c r="K12" t="n">
-        <v>127.0390157285252</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L12" t="n">
-        <v>178.42308164712</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M12" t="n">
-        <v>211.3885843242575</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N12" t="n">
-        <v>219.3484664972889</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O12" t="n">
-        <v>197.0138050378652</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P12" t="n">
-        <v>154.9475907538915</v>
+        <v>225.3229807893105</v>
       </c>
       <c r="Q12" t="n">
-        <v>189.45419187271</v>
+        <v>95.38455350960186</v>
       </c>
       <c r="R12" t="n">
-        <v>140.3062408746236</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.21638531055218</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K13" t="n">
-        <v>318.9563201597416</v>
+        <v>69.17590691325469</v>
       </c>
       <c r="L13" t="n">
         <v>453.4520759799035</v>
       </c>
       <c r="M13" t="n">
+        <v>99.04378543193859</v>
+      </c>
+      <c r="N13" t="n">
+        <v>97.97849100196758</v>
+      </c>
+      <c r="O13" t="n">
         <v>453.4520759799035</v>
       </c>
-      <c r="N13" t="n">
-        <v>97.97849100196754</v>
-      </c>
-      <c r="O13" t="n">
-        <v>325.6280527112276</v>
-      </c>
       <c r="P13" t="n">
-        <v>71.45566478902606</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.34794198810388</v>
+        <v>122.0884596638508</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,16 +35652,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L14" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M14" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N14" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O14" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P14" t="n">
         <v>211.1492784199623</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>15.69034674432573</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J15" t="n">
-        <v>66.82266174326165</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K15" t="n">
         <v>127.0390157285253</v>
@@ -35740,16 +35740,16 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O15" t="n">
-        <v>453.4520759799035</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P15" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q15" t="n">
-        <v>334.5896509857174</v>
+        <v>165.7599435450199</v>
       </c>
       <c r="R15" t="n">
-        <v>33.78553351613294</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K16" t="n">
-        <v>69.17590691325471</v>
+        <v>69.17590691325469</v>
       </c>
       <c r="L16" t="n">
-        <v>453.4520759799035</v>
+        <v>93.43012434365872</v>
       </c>
       <c r="M16" t="n">
         <v>453.4520759799035</v>
       </c>
       <c r="N16" t="n">
-        <v>97.9784910019676</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="O16" t="n">
         <v>453.4520759799035</v>
       </c>
       <c r="P16" t="n">
-        <v>114.7032500716643</v>
+        <v>71.45566478902609</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.34794198810391</v>
+        <v>88.143893929051</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>39.38459507201446</v>
       </c>
       <c r="J18" t="n">
-        <v>66.82266174326165</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K18" t="n">
         <v>127.0390157285253</v>
       </c>
       <c r="L18" t="n">
-        <v>408.3087100819392</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M18" t="n">
-        <v>453.4520759799035</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N18" t="n">
         <v>219.3484664972891</v>
@@ -35983,10 +35983,10 @@
         <v>154.9475907538915</v>
       </c>
       <c r="Q18" t="n">
-        <v>95.38455350960189</v>
+        <v>165.7599435450197</v>
       </c>
       <c r="R18" t="n">
-        <v>33.78553351613294</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>46.31155173584225</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K19" t="n">
-        <v>69.17590691325471</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L19" t="n">
         <v>93.43012434365872</v>
       </c>
       <c r="M19" t="n">
-        <v>99.0437854319386</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="N19" t="n">
-        <v>453.4520759799035</v>
+        <v>97.9784910019676</v>
       </c>
       <c r="O19" t="n">
-        <v>453.4520759799035</v>
+        <v>138.1233188935052</v>
       </c>
       <c r="P19" t="n">
         <v>387.3710229438823</v>
@@ -36199,19 +36199,19 @@
         <v>39.38459507201446</v>
       </c>
       <c r="J21" t="n">
-        <v>66.82266174326165</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K21" t="n">
         <v>127.0390157285253</v>
       </c>
       <c r="L21" t="n">
-        <v>453.4520759799035</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M21" t="n">
         <v>211.3885843242576</v>
       </c>
       <c r="N21" t="n">
-        <v>309.7478848964802</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O21" t="n">
         <v>197.0138050378654</v>
@@ -36220,7 +36220,7 @@
         <v>154.9475907538915</v>
       </c>
       <c r="Q21" t="n">
-        <v>95.38455350960189</v>
+        <v>165.7599435450197</v>
       </c>
       <c r="R21" t="n">
         <v>140.3062408746237</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.21638531055221</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K22" t="n">
         <v>318.9563201597416</v>
       </c>
       <c r="L22" t="n">
-        <v>93.43012434365872</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="M22" t="n">
-        <v>227.6458390125399</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="N22" t="n">
-        <v>453.4520759799035</v>
+        <v>257.7329634399171</v>
       </c>
       <c r="O22" t="n">
         <v>87.16477557810538</v>
       </c>
       <c r="P22" t="n">
-        <v>387.3710229438823</v>
+        <v>71.4556647890261</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.2504645920423</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>51.70167685257456</v>
+        <v>51.70167685257451</v>
       </c>
       <c r="J23" t="n">
-        <v>160.4594319755878</v>
+        <v>160.4594319755876</v>
       </c>
       <c r="K23" t="n">
-        <v>248.8153858509952</v>
+        <v>248.815385850995</v>
       </c>
       <c r="L23" t="n">
-        <v>314.7345952852729</v>
+        <v>314.7345952852726</v>
       </c>
       <c r="M23" t="n">
-        <v>355.4011463661764</v>
+        <v>355.4011463661761</v>
       </c>
       <c r="N23" t="n">
-        <v>361.9092255067193</v>
+        <v>361.9092255067191</v>
       </c>
       <c r="O23" t="n">
-        <v>339.5517504694983</v>
+        <v>339.551750469498</v>
       </c>
       <c r="P23" t="n">
-        <v>284.1365201480443</v>
+        <v>284.136520148044</v>
       </c>
       <c r="Q23" t="n">
-        <v>205.4675507260005</v>
+        <v>205.4675507260002</v>
       </c>
       <c r="R23" t="n">
-        <v>105.4997446780013</v>
+        <v>105.4997446780012</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>25.04033727809632</v>
+        <v>48.73458560578501</v>
       </c>
       <c r="J24" t="n">
-        <v>92.47975041688613</v>
+        <v>92.47975041688603</v>
       </c>
       <c r="K24" t="n">
-        <v>170.8910668727077</v>
+        <v>170.8910668727075</v>
       </c>
       <c r="L24" t="n">
-        <v>237.3875760897078</v>
+        <v>237.3875760897076</v>
       </c>
       <c r="M24" t="n">
-        <v>280.1973681632292</v>
+        <v>280.1973681632289</v>
       </c>
       <c r="N24" t="n">
-        <v>331.1285208766361</v>
+        <v>289.9784140975515</v>
       </c>
       <c r="O24" t="n">
-        <v>261.6264084118084</v>
+        <v>261.6264084118082</v>
       </c>
       <c r="P24" t="n">
-        <v>206.8049013092169</v>
+        <v>206.8049013092167</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.0497922987559</v>
+        <v>130.0497922987558</v>
       </c>
       <c r="R24" t="n">
-        <v>50.64648459843313</v>
+        <v>68.10234304983058</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>129.0216229103926</v>
+        <v>77.99634848868054</v>
       </c>
       <c r="K25" t="n">
-        <v>345.407704050915</v>
+        <v>95.62729080442791</v>
       </c>
       <c r="L25" t="n">
-        <v>272.2660439119772</v>
+        <v>507.4695904388653</v>
       </c>
       <c r="M25" t="n">
-        <v>552.4450627296425</v>
+        <v>552.4450627296424</v>
       </c>
       <c r="N25" t="n">
-        <v>534.8720223648095</v>
+        <v>534.8720223648094</v>
       </c>
       <c r="O25" t="n">
-        <v>119.3452228973513</v>
+        <v>500.8627221935161</v>
       </c>
       <c r="P25" t="n">
-        <v>414.9069549695606</v>
+        <v>98.99159681470437</v>
       </c>
       <c r="Q25" t="n">
-        <v>59.41239402422264</v>
+        <v>59.41239402422258</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>51.70167685257456</v>
+        <v>51.70167685257451</v>
       </c>
       <c r="J26" t="n">
-        <v>160.4594319755878</v>
+        <v>160.4594319755876</v>
       </c>
       <c r="K26" t="n">
-        <v>248.8153858509952</v>
+        <v>248.815385850995</v>
       </c>
       <c r="L26" t="n">
-        <v>314.7345952852729</v>
+        <v>314.7345952852726</v>
       </c>
       <c r="M26" t="n">
-        <v>355.4011463661764</v>
+        <v>355.4011463661761</v>
       </c>
       <c r="N26" t="n">
-        <v>361.9092255067193</v>
+        <v>361.9092255067191</v>
       </c>
       <c r="O26" t="n">
-        <v>339.5517504694983</v>
+        <v>339.551750469498</v>
       </c>
       <c r="P26" t="n">
-        <v>284.1365201480443</v>
+        <v>284.136520148044</v>
       </c>
       <c r="Q26" t="n">
-        <v>205.4675507260005</v>
+        <v>205.4675507260002</v>
       </c>
       <c r="R26" t="n">
-        <v>105.4997446780013</v>
+        <v>105.4997446780012</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>48.73458560578504</v>
+        <v>25.04033727809628</v>
       </c>
       <c r="J27" t="n">
-        <v>92.47975041688613</v>
+        <v>133.6298571959722</v>
       </c>
       <c r="K27" t="n">
-        <v>170.8910668727077</v>
+        <v>170.8910668727075</v>
       </c>
       <c r="L27" t="n">
-        <v>237.3875760897078</v>
+        <v>237.3875760897076</v>
       </c>
       <c r="M27" t="n">
-        <v>280.1973681632292</v>
+        <v>280.1973681632289</v>
       </c>
       <c r="N27" t="n">
-        <v>289.9784140975517</v>
+        <v>289.9784140975515</v>
       </c>
       <c r="O27" t="n">
-        <v>261.6264084118084</v>
+        <v>261.6264084118082</v>
       </c>
       <c r="P27" t="n">
-        <v>206.8049013092169</v>
+        <v>206.8049013092167</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.0497922987559</v>
+        <v>130.0497922987558</v>
       </c>
       <c r="R27" t="n">
-        <v>68.10234304982875</v>
+        <v>50.64648459843308</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,25 +36755,25 @@
         <v>129.0216229103926</v>
       </c>
       <c r="K28" t="n">
-        <v>345.407704050915</v>
+        <v>345.4077040509148</v>
       </c>
       <c r="L28" t="n">
-        <v>127.2787888316281</v>
+        <v>435.2788794628921</v>
       </c>
       <c r="M28" t="n">
-        <v>163.0122959098872</v>
+        <v>552.4450627296424</v>
       </c>
       <c r="N28" t="n">
-        <v>534.8720223648095</v>
+        <v>534.8720223648094</v>
       </c>
       <c r="O28" t="n">
-        <v>500.8627221935162</v>
+        <v>119.3452228973512</v>
       </c>
       <c r="P28" t="n">
-        <v>414.9069549695606</v>
+        <v>98.99159681470437</v>
       </c>
       <c r="Q28" t="n">
-        <v>212.3149166281611</v>
+        <v>212.314916628161</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>51.70167685257456</v>
+        <v>51.70167685257451</v>
       </c>
       <c r="J29" t="n">
-        <v>160.4594319755878</v>
+        <v>160.4594319755876</v>
       </c>
       <c r="K29" t="n">
-        <v>248.8153858509952</v>
+        <v>248.815385850995</v>
       </c>
       <c r="L29" t="n">
-        <v>314.7345952852729</v>
+        <v>314.7345952852726</v>
       </c>
       <c r="M29" t="n">
-        <v>355.4011463661764</v>
+        <v>355.4011463661761</v>
       </c>
       <c r="N29" t="n">
-        <v>361.9092255067193</v>
+        <v>361.9092255067191</v>
       </c>
       <c r="O29" t="n">
-        <v>339.5517504694983</v>
+        <v>339.551750469498</v>
       </c>
       <c r="P29" t="n">
-        <v>284.1365201480443</v>
+        <v>284.136520148044</v>
       </c>
       <c r="Q29" t="n">
-        <v>205.4675507260005</v>
+        <v>205.4675507260002</v>
       </c>
       <c r="R29" t="n">
-        <v>105.4997446780013</v>
+        <v>105.4997446780009</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>25.04033727809632</v>
+        <v>25.04033727809628</v>
       </c>
       <c r="J30" t="n">
-        <v>92.47975041688613</v>
+        <v>92.47975041688603</v>
       </c>
       <c r="K30" t="n">
-        <v>170.8910668727077</v>
+        <v>212.0411736517937</v>
       </c>
       <c r="L30" t="n">
-        <v>237.3875760897078</v>
+        <v>237.3875760897076</v>
       </c>
       <c r="M30" t="n">
-        <v>280.1973681632292</v>
+        <v>280.1973681632289</v>
       </c>
       <c r="N30" t="n">
-        <v>289.9784140975517</v>
+        <v>289.9784140975515</v>
       </c>
       <c r="O30" t="n">
-        <v>261.6264084118084</v>
+        <v>261.6264084118082</v>
       </c>
       <c r="P30" t="n">
-        <v>247.9550080883012</v>
+        <v>206.8049013092167</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.0497922987559</v>
+        <v>130.0497922987558</v>
       </c>
       <c r="R30" t="n">
-        <v>50.64648459843313</v>
+        <v>50.64648459843308</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,25 +36992,25 @@
         <v>129.0216229103926</v>
       </c>
       <c r="K31" t="n">
-        <v>95.62729080442801</v>
+        <v>345.4077040509148</v>
       </c>
       <c r="L31" t="n">
-        <v>127.2787888316281</v>
+        <v>206.6639027706659</v>
       </c>
       <c r="M31" t="n">
-        <v>552.4450627296425</v>
+        <v>552.4450627296424</v>
       </c>
       <c r="N31" t="n">
-        <v>534.8720223648095</v>
+        <v>534.8720223648094</v>
       </c>
       <c r="O31" t="n">
-        <v>361.210368620249</v>
+        <v>500.8627221935161</v>
       </c>
       <c r="P31" t="n">
-        <v>414.9069549695606</v>
+        <v>98.99159681470437</v>
       </c>
       <c r="Q31" t="n">
-        <v>212.3149166281611</v>
+        <v>59.41239402422258</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>51.70167685257456</v>
+        <v>51.70167685257451</v>
       </c>
       <c r="J32" t="n">
-        <v>160.4594319755878</v>
+        <v>160.4594319755876</v>
       </c>
       <c r="K32" t="n">
-        <v>248.8153858509952</v>
+        <v>248.815385850995</v>
       </c>
       <c r="L32" t="n">
-        <v>314.7345952852729</v>
+        <v>314.7345952852726</v>
       </c>
       <c r="M32" t="n">
-        <v>355.4011463661764</v>
+        <v>355.4011463661761</v>
       </c>
       <c r="N32" t="n">
-        <v>361.9092255067193</v>
+        <v>361.9092255067191</v>
       </c>
       <c r="O32" t="n">
-        <v>339.5517504694983</v>
+        <v>339.551750469498</v>
       </c>
       <c r="P32" t="n">
-        <v>284.1365201480443</v>
+        <v>284.136520148044</v>
       </c>
       <c r="Q32" t="n">
-        <v>205.4675507260005</v>
+        <v>205.4675507260002</v>
       </c>
       <c r="R32" t="n">
-        <v>105.4997446780013</v>
+        <v>105.4997446780012</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>25.04033727809632</v>
+        <v>25.04033727809628</v>
       </c>
       <c r="J33" t="n">
-        <v>92.47975041688613</v>
+        <v>133.6298571959722</v>
       </c>
       <c r="K33" t="n">
-        <v>170.8910668727077</v>
+        <v>170.8910668727075</v>
       </c>
       <c r="L33" t="n">
-        <v>237.3875760897078</v>
+        <v>237.3875760897076</v>
       </c>
       <c r="M33" t="n">
-        <v>280.1973681632292</v>
+        <v>280.1973681632289</v>
       </c>
       <c r="N33" t="n">
-        <v>289.9784140975517</v>
+        <v>289.9784140975515</v>
       </c>
       <c r="O33" t="n">
-        <v>261.6264084118084</v>
+        <v>261.6264084118082</v>
       </c>
       <c r="P33" t="n">
-        <v>206.8049013092169</v>
+        <v>206.8049013092167</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.0497922987559</v>
+        <v>130.0497922987558</v>
       </c>
       <c r="R33" t="n">
-        <v>91.79659137751749</v>
+        <v>50.64648459843308</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,25 +37229,25 @@
         <v>129.0216229103926</v>
       </c>
       <c r="K34" t="n">
-        <v>95.62729080442801</v>
+        <v>345.4077040509148</v>
       </c>
       <c r="L34" t="n">
-        <v>405.3390417864634</v>
+        <v>507.4695904388653</v>
       </c>
       <c r="M34" t="n">
-        <v>134.7324562015396</v>
+        <v>134.7324562015395</v>
       </c>
       <c r="N34" t="n">
-        <v>534.8720223648095</v>
+        <v>182.9610604659184</v>
       </c>
       <c r="O34" t="n">
-        <v>500.8627221935162</v>
+        <v>500.8627221935161</v>
       </c>
       <c r="P34" t="n">
         <v>414.9069549695606</v>
       </c>
       <c r="Q34" t="n">
-        <v>212.3149166281611</v>
+        <v>212.314916628161</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>51.70167685257456</v>
+        <v>51.70167685257451</v>
       </c>
       <c r="J35" t="n">
-        <v>160.4594319755878</v>
+        <v>160.4594319755876</v>
       </c>
       <c r="K35" t="n">
-        <v>248.8153858509952</v>
+        <v>248.815385850995</v>
       </c>
       <c r="L35" t="n">
-        <v>314.7345952852729</v>
+        <v>314.7345952852726</v>
       </c>
       <c r="M35" t="n">
-        <v>355.4011463661764</v>
+        <v>355.4011463661761</v>
       </c>
       <c r="N35" t="n">
-        <v>361.9092255067193</v>
+        <v>361.9092255067191</v>
       </c>
       <c r="O35" t="n">
-        <v>339.5517504694983</v>
+        <v>339.551750469498</v>
       </c>
       <c r="P35" t="n">
-        <v>284.1365201480443</v>
+        <v>284.136520148044</v>
       </c>
       <c r="Q35" t="n">
-        <v>205.4675507260005</v>
+        <v>205.4675507260002</v>
       </c>
       <c r="R35" t="n">
-        <v>105.4997446780013</v>
+        <v>105.4997446780012</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>25.04033727809632</v>
+        <v>48.73458560578501</v>
       </c>
       <c r="J36" t="n">
-        <v>92.47975041688613</v>
+        <v>109.9356088682834</v>
       </c>
       <c r="K36" t="n">
-        <v>170.8910668727077</v>
+        <v>170.8910668727075</v>
       </c>
       <c r="L36" t="n">
-        <v>237.3875760897078</v>
+        <v>237.3875760897076</v>
       </c>
       <c r="M36" t="n">
-        <v>280.1973681632292</v>
+        <v>280.1973681632289</v>
       </c>
       <c r="N36" t="n">
-        <v>289.9784140975517</v>
+        <v>289.9784140975515</v>
       </c>
       <c r="O36" t="n">
-        <v>302.7765151908928</v>
+        <v>261.6264084118082</v>
       </c>
       <c r="P36" t="n">
-        <v>206.8049013092169</v>
+        <v>206.8049013092167</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.0497922987559</v>
+        <v>130.0497922987558</v>
       </c>
       <c r="R36" t="n">
-        <v>50.64648459843313</v>
+        <v>50.64648459843308</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>50.31281821522005</v>
+        <v>77.99634848868054</v>
       </c>
       <c r="K37" t="n">
-        <v>95.62729080442801</v>
+        <v>95.62729080442791</v>
       </c>
       <c r="L37" t="n">
-        <v>127.2787888316281</v>
+        <v>507.4695904388653</v>
       </c>
       <c r="M37" t="n">
-        <v>491.5015138515475</v>
+        <v>552.4450627296424</v>
       </c>
       <c r="N37" t="n">
-        <v>534.8720223648095</v>
+        <v>534.8720223648094</v>
       </c>
       <c r="O37" t="n">
-        <v>500.8627221935162</v>
+        <v>500.8627221935161</v>
       </c>
       <c r="P37" t="n">
-        <v>414.9069549695606</v>
+        <v>98.99159681470437</v>
       </c>
       <c r="Q37" t="n">
-        <v>212.3149166281611</v>
+        <v>59.41239402422258</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>51.70167685257456</v>
+        <v>51.70167685257451</v>
       </c>
       <c r="J38" t="n">
-        <v>160.4594319755878</v>
+        <v>160.4594319755876</v>
       </c>
       <c r="K38" t="n">
-        <v>248.8153858509952</v>
+        <v>248.815385850995</v>
       </c>
       <c r="L38" t="n">
-        <v>314.7345952852729</v>
+        <v>314.7345952852726</v>
       </c>
       <c r="M38" t="n">
-        <v>355.4011463661764</v>
+        <v>355.4011463661761</v>
       </c>
       <c r="N38" t="n">
-        <v>361.9092255067193</v>
+        <v>361.9092255067191</v>
       </c>
       <c r="O38" t="n">
-        <v>339.5517504694983</v>
+        <v>339.551750469498</v>
       </c>
       <c r="P38" t="n">
-        <v>284.1365201480443</v>
+        <v>284.136520148044</v>
       </c>
       <c r="Q38" t="n">
-        <v>205.4675507260005</v>
+        <v>205.4675507260002</v>
       </c>
       <c r="R38" t="n">
-        <v>105.4997446780013</v>
+        <v>105.4997446780012</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>25.04033727809632</v>
+        <v>25.04033727809628</v>
       </c>
       <c r="J39" t="n">
-        <v>92.47975041688613</v>
+        <v>133.6298571959722</v>
       </c>
       <c r="K39" t="n">
-        <v>170.8910668727077</v>
+        <v>170.8910668727075</v>
       </c>
       <c r="L39" t="n">
-        <v>237.3875760897078</v>
+        <v>237.3875760897076</v>
       </c>
       <c r="M39" t="n">
-        <v>280.1973681632292</v>
+        <v>280.1973681632289</v>
       </c>
       <c r="N39" t="n">
-        <v>289.9784140975517</v>
+        <v>289.9784140975515</v>
       </c>
       <c r="O39" t="n">
-        <v>302.7765151908928</v>
+        <v>261.6264084118082</v>
       </c>
       <c r="P39" t="n">
-        <v>206.8049013092169</v>
+        <v>206.8049013092167</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.0497922987559</v>
+        <v>130.0497922987558</v>
       </c>
       <c r="R39" t="n">
-        <v>50.64648459843313</v>
+        <v>50.64648459843308</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>50.31281821522005</v>
+        <v>129.0216229103926</v>
       </c>
       <c r="K40" t="n">
-        <v>345.407704050915</v>
+        <v>95.62729080442791</v>
       </c>
       <c r="L40" t="n">
-        <v>127.2787888316281</v>
+        <v>507.4695904388653</v>
       </c>
       <c r="M40" t="n">
-        <v>241.7211006050607</v>
+        <v>134.7324562015395</v>
       </c>
       <c r="N40" t="n">
-        <v>534.8720223648095</v>
+        <v>534.8720223648094</v>
       </c>
       <c r="O40" t="n">
-        <v>500.8627221935162</v>
+        <v>398.7321735411119</v>
       </c>
       <c r="P40" t="n">
         <v>414.9069549695606</v>
       </c>
       <c r="Q40" t="n">
-        <v>212.3149166281611</v>
+        <v>212.314916628161</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>51.70167685257456</v>
+        <v>51.70167685257451</v>
       </c>
       <c r="J41" t="n">
-        <v>160.4594319755878</v>
+        <v>160.4594319755876</v>
       </c>
       <c r="K41" t="n">
-        <v>248.8153858509952</v>
+        <v>248.815385850995</v>
       </c>
       <c r="L41" t="n">
-        <v>314.7345952852729</v>
+        <v>314.7345952852726</v>
       </c>
       <c r="M41" t="n">
-        <v>355.4011463661764</v>
+        <v>355.4011463661761</v>
       </c>
       <c r="N41" t="n">
-        <v>361.9092255067193</v>
+        <v>361.9092255067191</v>
       </c>
       <c r="O41" t="n">
-        <v>339.5517504694983</v>
+        <v>339.551750469498</v>
       </c>
       <c r="P41" t="n">
-        <v>284.1365201480443</v>
+        <v>284.136520148044</v>
       </c>
       <c r="Q41" t="n">
-        <v>205.4675507260005</v>
+        <v>205.4675507260002</v>
       </c>
       <c r="R41" t="n">
-        <v>105.4997446780013</v>
+        <v>105.4997446780012</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>25.04033727809632</v>
+        <v>48.73458560578501</v>
       </c>
       <c r="J42" t="n">
-        <v>92.47975041688613</v>
+        <v>92.47975041688603</v>
       </c>
       <c r="K42" t="n">
-        <v>170.8910668727077</v>
+        <v>170.8910668727075</v>
       </c>
       <c r="L42" t="n">
-        <v>237.3875760897078</v>
+        <v>237.3875760897076</v>
       </c>
       <c r="M42" t="n">
-        <v>280.1973681632292</v>
+        <v>280.1973681632289</v>
       </c>
       <c r="N42" t="n">
-        <v>289.9784140975517</v>
+        <v>289.9784140975515</v>
       </c>
       <c r="O42" t="n">
-        <v>261.6264084118084</v>
+        <v>261.6264084118082</v>
       </c>
       <c r="P42" t="n">
-        <v>206.8049013092169</v>
+        <v>206.8049013092167</v>
       </c>
       <c r="Q42" t="n">
-        <v>171.1998990778403</v>
+        <v>130.0497922987558</v>
       </c>
       <c r="R42" t="n">
-        <v>50.64648459843313</v>
+        <v>68.10234304983058</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>50.31281821522005</v>
+        <v>50.31281821521999</v>
       </c>
       <c r="K43" t="n">
-        <v>345.407704050915</v>
+        <v>95.62729080442791</v>
       </c>
       <c r="L43" t="n">
-        <v>127.2787888316281</v>
+        <v>507.4695904388653</v>
       </c>
       <c r="M43" t="n">
-        <v>552.4450627296425</v>
+        <v>552.4450627296424</v>
       </c>
       <c r="N43" t="n">
-        <v>534.8720223648095</v>
+        <v>534.8720223648094</v>
       </c>
       <c r="O43" t="n">
-        <v>190.1387600689341</v>
+        <v>500.8627221935161</v>
       </c>
       <c r="P43" t="n">
-        <v>414.9069549695606</v>
+        <v>126.6751270881645</v>
       </c>
       <c r="Q43" t="n">
-        <v>212.3149166281611</v>
+        <v>59.41239402422258</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>51.70167685257484</v>
+        <v>51.70167685257448</v>
       </c>
       <c r="J44" t="n">
-        <v>160.4594319755878</v>
+        <v>160.4594319755876</v>
       </c>
       <c r="K44" t="n">
-        <v>248.8153858509952</v>
+        <v>248.8153858509949</v>
       </c>
       <c r="L44" t="n">
-        <v>314.7345952852729</v>
+        <v>314.7345952852726</v>
       </c>
       <c r="M44" t="n">
-        <v>355.4011463661764</v>
+        <v>355.401146366176</v>
       </c>
       <c r="N44" t="n">
-        <v>361.9092255067193</v>
+        <v>361.9092255067189</v>
       </c>
       <c r="O44" t="n">
-        <v>339.5517504694983</v>
+        <v>339.5517504694979</v>
       </c>
       <c r="P44" t="n">
-        <v>284.1365201480443</v>
+        <v>284.1365201480439</v>
       </c>
       <c r="Q44" t="n">
-        <v>205.4675507260005</v>
+        <v>205.4675507260002</v>
       </c>
       <c r="R44" t="n">
-        <v>105.4997446780013</v>
+        <v>105.4997446780011</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>25.04033727809632</v>
+        <v>48.734585605785</v>
       </c>
       <c r="J45" t="n">
-        <v>92.47975041688613</v>
+        <v>92.47975041688602</v>
       </c>
       <c r="K45" t="n">
-        <v>170.8910668727077</v>
+        <v>170.8910668727075</v>
       </c>
       <c r="L45" t="n">
-        <v>237.3875760897078</v>
+        <v>237.3875760897075</v>
       </c>
       <c r="M45" t="n">
-        <v>280.1973681632292</v>
+        <v>280.1973681632288</v>
       </c>
       <c r="N45" t="n">
-        <v>289.9784140975517</v>
+        <v>289.9784140975514</v>
       </c>
       <c r="O45" t="n">
-        <v>302.7765151908928</v>
+        <v>261.6264084118081</v>
       </c>
       <c r="P45" t="n">
-        <v>206.8049013092169</v>
+        <v>206.8049013092166</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.0497922987559</v>
+        <v>130.0497922987558</v>
       </c>
       <c r="R45" t="n">
-        <v>50.64648459843313</v>
+        <v>68.10234304983082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,25 +38177,25 @@
         <v>129.0216229103926</v>
       </c>
       <c r="K46" t="n">
-        <v>345.407704050915</v>
+        <v>95.62729080442789</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4695904388655</v>
+        <v>127.2787888316279</v>
       </c>
       <c r="M46" t="n">
-        <v>337.7774743226295</v>
+        <v>552.4450627296424</v>
       </c>
       <c r="N46" t="n">
-        <v>132.8185649487689</v>
+        <v>534.8720223648094</v>
       </c>
       <c r="O46" t="n">
-        <v>500.8627221935162</v>
+        <v>500.862722193516</v>
       </c>
       <c r="P46" t="n">
-        <v>414.9069549695606</v>
+        <v>275.2546013962914</v>
       </c>
       <c r="Q46" t="n">
-        <v>59.41239402422264</v>
+        <v>212.314916628161</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
